--- a/data-viz/inputs/region_labels.xlsx
+++ b/data-viz/inputs/region_labels.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wjproject.sharepoint.com/research/Programmatic/EU Subnational/EU-S Data/reports/eu-gpp-report/data-viz/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="45" documentId="8_{6626208B-8827-4CBE-9772-3AA277DEA2CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{85F75A0E-1819-48E3-B380-46CDEE242AAE}"/>
+  <xr:revisionPtr revIDLastSave="100" documentId="8_{6626208B-8827-4CBE-9772-3AA277DEA2CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{48F1E196-DF6B-444C-B988-5E65BA2ECABA}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-30" windowWidth="29040" windowHeight="15720" xr2:uid="{DD3ABE5B-D581-4517-9DBD-9419A819EBBB}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="387">
   <si>
     <t>#</t>
   </si>
@@ -56,9 +56,6 @@
     <t>Brussels Capital Region</t>
   </si>
   <si>
-    <t>Brussels</t>
-  </si>
-  <si>
     <t>BE2</t>
   </si>
   <si>
@@ -68,9 +65,6 @@
     <t>Flemish Region</t>
   </si>
   <si>
-    <t>Flanders</t>
-  </si>
-  <si>
     <t>BE3</t>
   </si>
   <si>
@@ -80,9 +74,6 @@
     <t>Walloon Region</t>
   </si>
   <si>
-    <t>Wallonia</t>
-  </si>
-  <si>
     <t>Bulgaria</t>
   </si>
   <si>
@@ -95,9 +86,6 @@
     <t>Northern and Eastern Bulgaria</t>
   </si>
   <si>
-    <t>North and West</t>
-  </si>
-  <si>
     <t>BG4</t>
   </si>
   <si>
@@ -458,25 +446,16 @@
     <t>Centre</t>
   </si>
   <si>
-    <t>E5</t>
-  </si>
-  <si>
     <t>Este</t>
   </si>
   <si>
     <t>East</t>
   </si>
   <si>
-    <t>E6</t>
-  </si>
-  <si>
     <t>Sur</t>
   </si>
   <si>
     <t>South</t>
-  </si>
-  <si>
-    <t>E7</t>
   </si>
   <si>
     <t>Canarias</t>
@@ -610,9 +589,6 @@
     <t>Pannonian Croatia</t>
   </si>
   <si>
-    <t>Pannonian</t>
-  </si>
-  <si>
     <t>HR03</t>
   </si>
   <si>
@@ -622,9 +598,6 @@
     <t>Adriatic Croatia</t>
   </si>
   <si>
-    <t>Adriatic</t>
-  </si>
-  <si>
     <t>HR05</t>
   </si>
   <si>
@@ -646,9 +619,6 @@
     <t>Northern Croatia</t>
   </si>
   <si>
-    <t>North</t>
-  </si>
-  <si>
     <t>Italy</t>
   </si>
   <si>
@@ -718,9 +688,6 @@
     <t>Capital Region</t>
   </si>
   <si>
-    <t>Capital</t>
-  </si>
-  <si>
     <t>LT02</t>
   </si>
   <si>
@@ -730,9 +697,6 @@
     <t>Central and Western Lithuania Region</t>
   </si>
   <si>
-    <t>Center and West</t>
-  </si>
-  <si>
     <t>Luxembourg</t>
   </si>
   <si>
@@ -805,9 +769,6 @@
     <t>Western Netherlands</t>
   </si>
   <si>
-    <t>West</t>
-  </si>
-  <si>
     <t>NL4</t>
   </si>
   <si>
@@ -913,9 +874,6 @@
     <t>Mazovian Macoregion</t>
   </si>
   <si>
-    <t>Mazovia</t>
-  </si>
-  <si>
     <t>Portugal</t>
   </si>
   <si>
@@ -928,9 +886,6 @@
     <t>Continental Portugal</t>
   </si>
   <si>
-    <t>Continental</t>
-  </si>
-  <si>
     <t>PT2</t>
   </si>
   <si>
@@ -967,9 +922,6 @@
     <t>Macroregion One</t>
   </si>
   <si>
-    <t>One</t>
-  </si>
-  <si>
     <t>RO2</t>
   </si>
   <si>
@@ -979,9 +931,6 @@
     <t>Macroregion Two</t>
   </si>
   <si>
-    <t>Two</t>
-  </si>
-  <si>
     <t>RO3</t>
   </si>
   <si>
@@ -991,9 +940,6 @@
     <t>Macroregion Three</t>
   </si>
   <si>
-    <t>Three</t>
-  </si>
-  <si>
     <t>RO4</t>
   </si>
   <si>
@@ -1003,9 +949,6 @@
     <t>Macroregion Four</t>
   </si>
   <si>
-    <t>Four</t>
-  </si>
-  <si>
     <t>Slovenia</t>
   </si>
   <si>
@@ -1105,9 +1048,6 @@
     <t>North and East Finland</t>
   </si>
   <si>
-    <t>North and East</t>
-  </si>
-  <si>
     <t>FI20</t>
   </si>
   <si>
@@ -1144,21 +1084,6 @@
     <t>North Sweden</t>
   </si>
   <si>
-    <t>Northwest</t>
-  </si>
-  <si>
-    <t>Southwest</t>
-  </si>
-  <si>
-    <t>Northeast</t>
-  </si>
-  <si>
-    <t>Southeast</t>
-  </si>
-  <si>
-    <t>Southwest and South-Center</t>
-  </si>
-  <si>
     <t>nameENG</t>
   </si>
   <si>
@@ -1175,6 +1100,117 @@
   </si>
   <si>
     <t>country</t>
+  </si>
+  <si>
+    <t>ES5</t>
+  </si>
+  <si>
+    <t>ES6</t>
+  </si>
+  <si>
+    <t>ES7</t>
+  </si>
+  <si>
+    <t>East Austria</t>
+  </si>
+  <si>
+    <t>South Austria</t>
+  </si>
+  <si>
+    <t>West Austria</t>
+  </si>
+  <si>
+    <t>Brussels Region</t>
+  </si>
+  <si>
+    <t>North and South-East</t>
+  </si>
+  <si>
+    <t>Waloon Region</t>
+  </si>
+  <si>
+    <t>South -West/-Central</t>
+  </si>
+  <si>
+    <t>Moravian Silesia</t>
+  </si>
+  <si>
+    <t>Capital (region)</t>
+  </si>
+  <si>
+    <t>South Denmark</t>
+  </si>
+  <si>
+    <t>North Greece</t>
+  </si>
+  <si>
+    <t>Madrid</t>
+  </si>
+  <si>
+    <t>Grand Est</t>
+  </si>
+  <si>
+    <t>Loire Region</t>
+  </si>
+  <si>
+    <t>New Aquitaine</t>
+  </si>
+  <si>
+    <t>Central/Western Region</t>
+  </si>
+  <si>
+    <t>North Netherlands</t>
+  </si>
+  <si>
+    <t>East Netherlands</t>
+  </si>
+  <si>
+    <t>West Netherlands</t>
+  </si>
+  <si>
+    <t>South Netherlands</t>
+  </si>
+  <si>
+    <t>North-Western</t>
+  </si>
+  <si>
+    <t>South-Western</t>
+  </si>
+  <si>
+    <t>Northern</t>
+  </si>
+  <si>
+    <t>Central</t>
+  </si>
+  <si>
+    <t>Eastern</t>
+  </si>
+  <si>
+    <t>Mazowieckie</t>
+  </si>
+  <si>
+    <t>East Slovenia</t>
+  </si>
+  <si>
+    <t>West Slovenia</t>
+  </si>
+  <si>
+    <t>West Slovakia</t>
+  </si>
+  <si>
+    <t>East Slovakia</t>
+  </si>
+  <si>
+    <t>Åland Islands</t>
+  </si>
+  <si>
+    <t>Eastern Sweden</t>
+  </si>
+  <si>
+    <t>Southern Sweden</t>
+  </si>
+  <si>
+    <t>Northern Sweden</t>
   </si>
 </sst>
 </file>
@@ -1184,7 +1220,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1216,13 +1252,38 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCE4D6"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDEBF7"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1239,7 +1300,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1259,6 +1320,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1577,12 +1642,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7B15BD7-531B-4529-B0B4-38B6E533B250}">
   <dimension ref="A1:G116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B82" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="49.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="38" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="27.140625" bestFit="1" customWidth="1"/>
@@ -1593,22 +1659,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>374</v>
+        <v>349</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>373</v>
+        <v>348</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>371</v>
+        <v>346</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>369</v>
+        <v>344</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>370</v>
+        <v>345</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1616,22 +1682,22 @@
         <v>85</v>
       </c>
       <c r="B2" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="F2" t="s">
-        <v>258</v>
-      </c>
-      <c r="G2" t="s">
-        <v>141</v>
+        <v>245</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1639,22 +1705,22 @@
         <v>86</v>
       </c>
       <c r="B3" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="F3" t="s">
-        <v>261</v>
-      </c>
-      <c r="G3" t="s">
-        <v>144</v>
+        <v>248</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1662,22 +1728,22 @@
         <v>87</v>
       </c>
       <c r="B4" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="F4" t="s">
-        <v>264</v>
-      </c>
-      <c r="G4" t="s">
         <v>251</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1699,8 +1765,8 @@
       <c r="F5" t="s">
         <v>4</v>
       </c>
-      <c r="G5" t="s">
-        <v>5</v>
+      <c r="G5" s="9" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1714,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" t="s">
         <v>7</v>
       </c>
-      <c r="F6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" t="s">
-        <v>9</v>
+      <c r="G6" s="9" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1737,16 +1803,16 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" t="s">
-        <v>13</v>
+      <c r="G7" s="9" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1754,22 +1820,22 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
         <v>14</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" t="s">
-        <v>18</v>
+      <c r="G8" s="10" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1777,22 +1843,22 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" t="s">
-        <v>368</v>
+        <v>17</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1800,22 +1866,22 @@
         <v>63</v>
       </c>
       <c r="B10" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="F10" t="s">
-        <v>185</v>
-      </c>
-      <c r="G10" t="s">
-        <v>186</v>
+        <v>178</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1823,22 +1889,22 @@
         <v>64</v>
       </c>
       <c r="B11" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="F11" t="s">
-        <v>189</v>
-      </c>
-      <c r="G11" t="s">
-        <v>190</v>
+        <v>181</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -1846,22 +1912,22 @@
         <v>65</v>
       </c>
       <c r="B12" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C12">
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="F12" t="s">
-        <v>193</v>
-      </c>
-      <c r="G12" t="s">
-        <v>194</v>
+        <v>184</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -1869,22 +1935,22 @@
         <v>66</v>
       </c>
       <c r="B13" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C13">
         <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="F13" t="s">
-        <v>197</v>
-      </c>
-      <c r="G13" t="s">
-        <v>198</v>
+        <v>188</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -1892,22 +1958,22 @@
         <v>72</v>
       </c>
       <c r="B14" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="F14" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="G14" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -1915,22 +1981,22 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C15">
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F15" t="s">
-        <v>25</v>
-      </c>
-      <c r="G15" t="s">
-        <v>25</v>
+        <v>21</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -1938,68 +2004,68 @@
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C16">
         <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F16" t="s">
-        <v>28</v>
-      </c>
-      <c r="G16" t="s">
-        <v>28</v>
+        <v>24</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C17">
         <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>30</v>
+        <v>37</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="F17" t="s">
-        <v>31</v>
-      </c>
-      <c r="G17" t="s">
-        <v>365</v>
+        <v>39</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C18">
         <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F18" t="s">
-        <v>34</v>
-      </c>
-      <c r="G18" t="s">
-        <v>364</v>
+        <v>42</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -2007,91 +2073,91 @@
         <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C19">
         <v>2</v>
       </c>
       <c r="D19" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F19" t="s">
-        <v>37</v>
-      </c>
-      <c r="G19" t="s">
-        <v>366</v>
+        <v>33</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C20">
         <v>2</v>
       </c>
       <c r="D20" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="F20" t="s">
-        <v>40</v>
-      </c>
-      <c r="G20" t="s">
-        <v>367</v>
+        <v>30</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C21">
         <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F21" t="s">
-        <v>43</v>
-      </c>
-      <c r="G21" t="s">
-        <v>43</v>
+        <v>36</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C22">
         <v>2</v>
       </c>
       <c r="D22" t="s">
-        <v>44</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>45</v>
+        <v>25</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="F22" t="s">
-        <v>46</v>
-      </c>
-      <c r="G22" t="s">
-        <v>46</v>
+        <v>27</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -2099,22 +2165,22 @@
         <v>14</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C23">
         <v>2</v>
       </c>
       <c r="D23" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>49</v>
-      </c>
-      <c r="G23" t="s">
-        <v>49</v>
+        <v>45</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -2122,22 +2188,22 @@
         <v>15</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C24">
         <v>2</v>
       </c>
       <c r="D24" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F24" t="s">
-        <v>52</v>
-      </c>
-      <c r="G24" t="s">
-        <v>52</v>
+        <v>48</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -2145,22 +2211,22 @@
         <v>16</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C25">
         <v>2</v>
       </c>
       <c r="D25" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F25" t="s">
-        <v>55</v>
-      </c>
-      <c r="G25" t="s">
-        <v>55</v>
+        <v>51</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -2168,22 +2234,22 @@
         <v>17</v>
       </c>
       <c r="B26" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C26">
         <v>2</v>
       </c>
       <c r="D26" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F26" t="s">
-        <v>58</v>
-      </c>
-      <c r="G26" t="s">
-        <v>58</v>
+        <v>54</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -2191,22 +2257,22 @@
         <v>18</v>
       </c>
       <c r="B27" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C27">
         <v>2</v>
       </c>
       <c r="D27" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F27" t="s">
-        <v>61</v>
-      </c>
-      <c r="G27" t="s">
-        <v>61</v>
+        <v>57</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -2214,22 +2280,22 @@
         <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F28" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="G28" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -2237,22 +2303,22 @@
         <v>108</v>
       </c>
       <c r="B29" t="s">
-        <v>339</v>
+        <v>320</v>
       </c>
       <c r="C29">
         <v>2</v>
       </c>
       <c r="D29" t="s">
-        <v>340</v>
+        <v>321</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>341</v>
+        <v>322</v>
       </c>
       <c r="F29" t="s">
-        <v>342</v>
-      </c>
-      <c r="G29" t="s">
-        <v>251</v>
+        <v>323</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -2260,22 +2326,22 @@
         <v>109</v>
       </c>
       <c r="B30" t="s">
-        <v>339</v>
+        <v>320</v>
       </c>
       <c r="C30">
         <v>2</v>
       </c>
       <c r="D30" t="s">
-        <v>343</v>
+        <v>324</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>344</v>
+        <v>325</v>
       </c>
       <c r="F30" t="s">
-        <v>344</v>
-      </c>
-      <c r="G30" t="s">
-        <v>344</v>
+        <v>325</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -2283,22 +2349,22 @@
         <v>110</v>
       </c>
       <c r="B31" t="s">
-        <v>339</v>
+        <v>320</v>
       </c>
       <c r="C31">
         <v>2</v>
       </c>
       <c r="D31" t="s">
-        <v>345</v>
+        <v>326</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="F31" t="s">
-        <v>347</v>
-      </c>
-      <c r="G31" t="s">
-        <v>144</v>
+        <v>328</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -2306,22 +2372,22 @@
         <v>111</v>
       </c>
       <c r="B32" t="s">
-        <v>339</v>
+        <v>320</v>
       </c>
       <c r="C32">
         <v>2</v>
       </c>
       <c r="D32" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="F32" t="s">
-        <v>350</v>
-      </c>
-      <c r="G32" t="s">
-        <v>351</v>
+        <v>331</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -2329,22 +2395,22 @@
         <v>112</v>
       </c>
       <c r="B33" t="s">
-        <v>339</v>
+        <v>320</v>
       </c>
       <c r="C33">
         <v>2</v>
       </c>
       <c r="D33" t="s">
-        <v>352</v>
+        <v>332</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>353</v>
+        <v>333</v>
       </c>
       <c r="F33" t="s">
-        <v>353</v>
-      </c>
-      <c r="G33" t="s">
-        <v>353</v>
+        <v>333</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -2352,22 +2418,22 @@
         <v>50</v>
       </c>
       <c r="B34" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C34">
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="F34" t="s">
-        <v>150</v>
-      </c>
-      <c r="G34" t="s">
-        <v>150</v>
+        <v>143</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -2375,22 +2441,22 @@
         <v>51</v>
       </c>
       <c r="B35" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C35">
         <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="F35" t="s">
-        <v>153</v>
-      </c>
-      <c r="G35" t="s">
-        <v>153</v>
+        <v>146</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -2398,22 +2464,22 @@
         <v>52</v>
       </c>
       <c r="B36" t="s">
+        <v>141</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36" t="s">
+        <v>147</v>
+      </c>
+      <c r="E36" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="C36">
-        <v>1</v>
-      </c>
-      <c r="D36" t="s">
-        <v>154</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>155</v>
-      </c>
       <c r="F36" t="s">
-        <v>156</v>
-      </c>
-      <c r="G36" t="s">
-        <v>156</v>
+        <v>149</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -2421,22 +2487,22 @@
         <v>53</v>
       </c>
       <c r="B37" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C37">
         <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="F37" t="s">
-        <v>159</v>
-      </c>
-      <c r="G37" t="s">
-        <v>159</v>
+        <v>152</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -2444,22 +2510,22 @@
         <v>54</v>
       </c>
       <c r="B38" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="F38" t="s">
-        <v>161</v>
-      </c>
-      <c r="G38" t="s">
-        <v>161</v>
+        <v>154</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -2467,22 +2533,22 @@
         <v>55</v>
       </c>
       <c r="B39" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C39">
         <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="F39" t="s">
-        <v>163</v>
-      </c>
-      <c r="G39" t="s">
-        <v>163</v>
+        <v>156</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -2490,22 +2556,22 @@
         <v>56</v>
       </c>
       <c r="B40" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="F40" t="s">
-        <v>165</v>
-      </c>
-      <c r="G40" t="s">
-        <v>165</v>
+        <v>158</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -2513,22 +2579,22 @@
         <v>57</v>
       </c>
       <c r="B41" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C41">
         <v>1</v>
       </c>
       <c r="D41" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="F41" t="s">
-        <v>168</v>
-      </c>
-      <c r="G41" t="s">
-        <v>168</v>
+        <v>161</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -2536,22 +2602,22 @@
         <v>58</v>
       </c>
       <c r="B42" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C42">
         <v>1</v>
       </c>
       <c r="D42" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="F42" t="s">
-        <v>170</v>
-      </c>
-      <c r="G42" t="s">
-        <v>170</v>
+        <v>163</v>
+      </c>
+      <c r="G42" s="9" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -2559,22 +2625,22 @@
         <v>59</v>
       </c>
       <c r="B43" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C43">
         <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="F43" t="s">
-        <v>173</v>
-      </c>
-      <c r="G43" t="s">
-        <v>173</v>
+        <v>166</v>
+      </c>
+      <c r="G43" s="9" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -2582,22 +2648,22 @@
         <v>60</v>
       </c>
       <c r="B44" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C44">
         <v>1</v>
       </c>
       <c r="D44" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="F44" t="s">
-        <v>175</v>
-      </c>
-      <c r="G44" t="s">
-        <v>175</v>
+        <v>168</v>
+      </c>
+      <c r="G44" s="9" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -2605,22 +2671,22 @@
         <v>61</v>
       </c>
       <c r="B45" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C45">
         <v>1</v>
       </c>
       <c r="D45" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="F45" t="s">
-        <v>177</v>
-      </c>
-      <c r="G45" t="s">
-        <v>178</v>
+        <v>170</v>
+      </c>
+      <c r="G45" s="10" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -2628,22 +2694,22 @@
         <v>62</v>
       </c>
       <c r="B46" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C46">
         <v>1</v>
       </c>
       <c r="D46" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="F46" t="s">
-        <v>181</v>
-      </c>
-      <c r="G46" t="s">
-        <v>181</v>
+        <v>174</v>
+      </c>
+      <c r="G46" s="9" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -2651,22 +2717,22 @@
         <v>19</v>
       </c>
       <c r="B47" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C47">
         <v>1</v>
       </c>
       <c r="D47" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F47" t="s">
-        <v>64</v>
-      </c>
-      <c r="G47" t="s">
-        <v>64</v>
+        <v>60</v>
+      </c>
+      <c r="G47" s="9" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -2674,22 +2740,22 @@
         <v>20</v>
       </c>
       <c r="B48" t="s">
+        <v>58</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48" t="s">
+        <v>61</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C48">
-        <v>1</v>
-      </c>
-      <c r="D48" t="s">
-        <v>65</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="F48" t="s">
-        <v>67</v>
-      </c>
-      <c r="G48" t="s">
-        <v>67</v>
+        <v>63</v>
+      </c>
+      <c r="G48" s="9" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -2697,22 +2763,22 @@
         <v>21</v>
       </c>
       <c r="B49" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C49">
         <v>1</v>
       </c>
       <c r="D49" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F49" t="s">
-        <v>69</v>
-      </c>
-      <c r="G49" t="s">
-        <v>69</v>
+        <v>65</v>
+      </c>
+      <c r="G49" s="9" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -2720,22 +2786,22 @@
         <v>22</v>
       </c>
       <c r="B50" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C50">
         <v>1</v>
       </c>
       <c r="D50" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F50" t="s">
-        <v>71</v>
-      </c>
-      <c r="G50" t="s">
-        <v>71</v>
+        <v>67</v>
+      </c>
+      <c r="G50" s="9" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -2743,22 +2809,22 @@
         <v>23</v>
       </c>
       <c r="B51" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C51">
         <v>1</v>
       </c>
       <c r="D51" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F51" t="s">
-        <v>73</v>
-      </c>
-      <c r="G51" t="s">
-        <v>73</v>
+        <v>69</v>
+      </c>
+      <c r="G51" s="9" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -2766,22 +2832,22 @@
         <v>24</v>
       </c>
       <c r="B52" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C52">
         <v>1</v>
       </c>
       <c r="D52" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F52" t="s">
-        <v>75</v>
-      </c>
-      <c r="G52" t="s">
-        <v>75</v>
+        <v>71</v>
+      </c>
+      <c r="G52" s="9" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -2789,22 +2855,22 @@
         <v>25</v>
       </c>
       <c r="B53" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C53">
         <v>1</v>
       </c>
       <c r="D53" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F53" t="s">
-        <v>78</v>
-      </c>
-      <c r="G53" t="s">
-        <v>78</v>
+        <v>74</v>
+      </c>
+      <c r="G53" s="9" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -2812,22 +2878,22 @@
         <v>26</v>
       </c>
       <c r="B54" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C54">
         <v>1</v>
       </c>
       <c r="D54" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F54" t="s">
-        <v>80</v>
-      </c>
-      <c r="G54" t="s">
-        <v>80</v>
+        <v>76</v>
+      </c>
+      <c r="G54" s="10" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -2835,22 +2901,22 @@
         <v>27</v>
       </c>
       <c r="B55" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C55">
         <v>1</v>
       </c>
       <c r="D55" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F55" t="s">
-        <v>83</v>
-      </c>
-      <c r="G55" t="s">
-        <v>83</v>
+        <v>79</v>
+      </c>
+      <c r="G55" s="9" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -2858,22 +2924,22 @@
         <v>28</v>
       </c>
       <c r="B56" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C56">
         <v>1</v>
       </c>
       <c r="D56" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F56" t="s">
-        <v>86</v>
-      </c>
-      <c r="G56" t="s">
-        <v>86</v>
+        <v>82</v>
+      </c>
+      <c r="G56" s="9" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -2881,22 +2947,22 @@
         <v>29</v>
       </c>
       <c r="B57" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C57">
         <v>1</v>
       </c>
       <c r="D57" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F57" t="s">
-        <v>89</v>
-      </c>
-      <c r="G57" t="s">
-        <v>89</v>
+        <v>85</v>
+      </c>
+      <c r="G57" s="9" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -2904,22 +2970,22 @@
         <v>30</v>
       </c>
       <c r="B58" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C58">
         <v>1</v>
       </c>
       <c r="D58" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F58" t="s">
-        <v>91</v>
-      </c>
-      <c r="G58" t="s">
-        <v>91</v>
+        <v>87</v>
+      </c>
+      <c r="G58" s="9" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -2927,22 +2993,22 @@
         <v>31</v>
       </c>
       <c r="B59" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C59">
         <v>1</v>
       </c>
       <c r="D59" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F59" t="s">
-        <v>94</v>
-      </c>
-      <c r="G59" t="s">
-        <v>94</v>
+        <v>90</v>
+      </c>
+      <c r="G59" s="9" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -2950,22 +3016,22 @@
         <v>32</v>
       </c>
       <c r="B60" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C60">
         <v>1</v>
       </c>
       <c r="D60" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F60" t="s">
-        <v>97</v>
-      </c>
-      <c r="G60" t="s">
-        <v>97</v>
+        <v>93</v>
+      </c>
+      <c r="G60" s="9" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -2973,22 +3039,22 @@
         <v>33</v>
       </c>
       <c r="B61" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C61">
         <v>1</v>
       </c>
       <c r="D61" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F61" t="s">
-        <v>99</v>
-      </c>
-      <c r="G61" t="s">
-        <v>99</v>
+        <v>95</v>
+      </c>
+      <c r="G61" s="9" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -2996,22 +3062,22 @@
         <v>34</v>
       </c>
       <c r="B62" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C62">
         <v>1</v>
       </c>
       <c r="D62" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F62" t="s">
-        <v>102</v>
-      </c>
-      <c r="G62" t="s">
-        <v>102</v>
+        <v>98</v>
+      </c>
+      <c r="G62" s="9" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -3019,22 +3085,22 @@
         <v>39</v>
       </c>
       <c r="B63" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C63">
         <v>1</v>
       </c>
       <c r="D63" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F63" t="s">
-        <v>116</v>
-      </c>
-      <c r="G63" t="s">
-        <v>116</v>
+        <v>112</v>
+      </c>
+      <c r="G63" s="9" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -3042,22 +3108,22 @@
         <v>40</v>
       </c>
       <c r="B64" t="s">
+        <v>109</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64" t="s">
         <v>113</v>
       </c>
-      <c r="C64">
-        <v>1</v>
-      </c>
-      <c r="D64" t="s">
-        <v>117</v>
-      </c>
       <c r="E64" s="6" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F64" t="s">
-        <v>119</v>
-      </c>
-      <c r="G64" t="s">
-        <v>119</v>
+        <v>115</v>
+      </c>
+      <c r="G64" s="9" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -3065,22 +3131,22 @@
         <v>41</v>
       </c>
       <c r="B65" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C65">
         <v>1</v>
       </c>
       <c r="D65" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F65" t="s">
-        <v>122</v>
-      </c>
-      <c r="G65" t="s">
-        <v>198</v>
+        <v>118</v>
+      </c>
+      <c r="G65" s="10" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -3088,22 +3154,22 @@
         <v>42</v>
       </c>
       <c r="B66" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C66">
         <v>1</v>
       </c>
       <c r="D66" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F66" t="s">
-        <v>125</v>
-      </c>
-      <c r="G66" t="s">
-        <v>211</v>
+        <v>121</v>
+      </c>
+      <c r="G66" s="9" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -3111,22 +3177,22 @@
         <v>77</v>
       </c>
       <c r="B67" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="C67">
         <v>1</v>
       </c>
       <c r="D67" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="F67" t="s">
-        <v>232</v>
-      </c>
-      <c r="G67" t="s">
-        <v>211</v>
+        <v>220</v>
+      </c>
+      <c r="G67" s="9" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -3134,22 +3200,22 @@
         <v>78</v>
       </c>
       <c r="B68" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="C68">
         <v>1</v>
       </c>
       <c r="D68" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="F68" t="s">
-        <v>235</v>
-      </c>
-      <c r="G68" t="s">
-        <v>235</v>
+        <v>223</v>
+      </c>
+      <c r="G68" s="9" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -3157,30 +3223,30 @@
         <v>79</v>
       </c>
       <c r="B69" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="C69">
         <v>1</v>
       </c>
       <c r="D69" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="F69" t="s">
-        <v>238</v>
-      </c>
-      <c r="G69" t="s">
-        <v>238</v>
+        <v>226</v>
+      </c>
+      <c r="G69" s="9" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B70" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C70">
         <v>2</v>
@@ -3194,100 +3260,100 @@
       <c r="F70" t="s">
         <v>108</v>
       </c>
-      <c r="G70" t="s">
+      <c r="G70" s="9" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B71" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C71">
         <v>2</v>
       </c>
       <c r="D71" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="F71" t="s">
-        <v>110</v>
-      </c>
-      <c r="G71" t="s">
-        <v>110</v>
+        <v>104</v>
+      </c>
+      <c r="G71" s="9" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B72" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C72">
         <v>2</v>
       </c>
       <c r="D72" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F72" t="s">
-        <v>112</v>
-      </c>
-      <c r="G72" t="s">
-        <v>112</v>
+        <v>106</v>
+      </c>
+      <c r="G72" s="12" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B73" t="s">
+        <v>189</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73" t="s">
         <v>199</v>
       </c>
-      <c r="C73">
-        <v>1</v>
-      </c>
-      <c r="D73" t="s">
+      <c r="E73" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="E73" s="2" t="s">
+      <c r="F73" t="s">
         <v>201</v>
       </c>
-      <c r="F73" t="s">
-        <v>34</v>
-      </c>
-      <c r="G73" t="s">
-        <v>364</v>
+      <c r="G73" s="11" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B74" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="C74">
         <v>1</v>
       </c>
       <c r="D74" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="F74" t="s">
-        <v>144</v>
-      </c>
-      <c r="G74" t="s">
-        <v>144</v>
+        <v>33</v>
+      </c>
+      <c r="G74" s="11" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -3295,68 +3361,68 @@
         <v>69</v>
       </c>
       <c r="B75" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="C75">
         <v>1</v>
       </c>
       <c r="D75" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="F75" t="s">
-        <v>206</v>
-      </c>
-      <c r="G75" t="s">
-        <v>206</v>
+        <v>196</v>
+      </c>
+      <c r="G75" s="9" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B76" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="C76">
         <v>1</v>
       </c>
       <c r="D76" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="F76" t="s">
-        <v>37</v>
-      </c>
-      <c r="G76" t="s">
-        <v>366</v>
+        <v>30</v>
+      </c>
+      <c r="G76" s="11" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B77" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="C77">
         <v>1</v>
       </c>
       <c r="D77" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="F77" t="s">
-        <v>211</v>
-      </c>
-      <c r="G77" t="s">
-        <v>211</v>
+        <v>138</v>
+      </c>
+      <c r="G77" s="11" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -3364,22 +3430,22 @@
         <v>73</v>
       </c>
       <c r="B78" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="C78">
         <v>2</v>
       </c>
       <c r="D78" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="F78" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="G78" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -3387,22 +3453,22 @@
         <v>74</v>
       </c>
       <c r="B79" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="C79">
         <v>2</v>
       </c>
       <c r="D79" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="F79" t="s">
-        <v>221</v>
-      </c>
-      <c r="G79" t="s">
-        <v>222</v>
+        <v>211</v>
+      </c>
+      <c r="G79" s="9" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -3410,22 +3476,22 @@
         <v>75</v>
       </c>
       <c r="B80" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="C80">
         <v>2</v>
       </c>
       <c r="D80" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="F80" t="s">
-        <v>225</v>
-      </c>
-      <c r="G80" t="s">
-        <v>226</v>
+        <v>214</v>
+      </c>
+      <c r="G80" s="10" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -3433,22 +3499,22 @@
         <v>76</v>
       </c>
       <c r="B81" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="C81">
         <v>2</v>
       </c>
       <c r="D81" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="F81" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="G81" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -3456,22 +3522,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="C82">
         <v>2</v>
       </c>
       <c r="D82" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="F82" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="G82" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -3479,22 +3545,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="C83">
         <v>1</v>
       </c>
       <c r="D83" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="F83" t="s">
-        <v>244</v>
-      </c>
-      <c r="G83" t="s">
-        <v>198</v>
+        <v>232</v>
+      </c>
+      <c r="G83" s="9" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -3502,22 +3568,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="C84">
         <v>1</v>
       </c>
       <c r="D84" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="F84" t="s">
-        <v>247</v>
-      </c>
-      <c r="G84" t="s">
-        <v>141</v>
+        <v>235</v>
+      </c>
+      <c r="G84" s="9" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -3525,22 +3591,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="C85">
         <v>1</v>
       </c>
       <c r="D85" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="F85" t="s">
-        <v>250</v>
-      </c>
-      <c r="G85" t="s">
-        <v>251</v>
+        <v>238</v>
+      </c>
+      <c r="G85" s="9" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -3548,183 +3614,183 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
+        <v>229</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+      <c r="D86" t="s">
+        <v>239</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="F86" t="s">
         <v>241</v>
       </c>
-      <c r="C86">
-        <v>1</v>
-      </c>
-      <c r="D86" t="s">
-        <v>252</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="F86" t="s">
-        <v>254</v>
-      </c>
-      <c r="G86" t="s">
-        <v>144</v>
+      <c r="G86" s="9" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87" t="s">
+        <v>252</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="D87" t="s">
         <v>265</v>
       </c>
-      <c r="C87">
-        <v>1</v>
-      </c>
-      <c r="D87" t="s">
+      <c r="E87" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="E87" s="2" t="s">
+      <c r="F87" t="s">
         <v>267</v>
       </c>
-      <c r="F87" t="s">
-        <v>268</v>
-      </c>
-      <c r="G87" t="s">
-        <v>144</v>
+      <c r="G87" s="9" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="C88">
         <v>1</v>
       </c>
       <c r="D88" t="s">
+        <v>268</v>
+      </c>
+      <c r="E88" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="E88" s="2" t="s">
+      <c r="F88" t="s">
         <v>270</v>
       </c>
-      <c r="F88" t="s">
-        <v>271</v>
-      </c>
-      <c r="G88" t="s">
-        <v>364</v>
+      <c r="G88" s="9" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B89" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="C89">
         <v>1</v>
       </c>
       <c r="D89" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="F89" t="s">
-        <v>274</v>
-      </c>
-      <c r="G89" t="s">
-        <v>365</v>
+        <v>264</v>
+      </c>
+      <c r="G89" s="9" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="C90">
         <v>1</v>
       </c>
       <c r="D90" t="s">
-        <v>275</v>
+        <v>256</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>276</v>
+        <v>257</v>
       </c>
       <c r="F90" t="s">
-        <v>277</v>
-      </c>
-      <c r="G90" t="s">
-        <v>198</v>
+        <v>258</v>
+      </c>
+      <c r="G90" s="9" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="C91">
         <v>1</v>
       </c>
       <c r="D91" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="F91" t="s">
-        <v>280</v>
-      </c>
-      <c r="G91" t="s">
-        <v>211</v>
+        <v>273</v>
+      </c>
+      <c r="G91" s="9" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B92" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="C92">
         <v>1</v>
       </c>
       <c r="D92" t="s">
-        <v>281</v>
+        <v>253</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>282</v>
+        <v>254</v>
       </c>
       <c r="F92" t="s">
-        <v>283</v>
-      </c>
-      <c r="G92" t="s">
-        <v>141</v>
+        <v>255</v>
+      </c>
+      <c r="G92" s="12" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B93" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="C93">
         <v>1</v>
       </c>
       <c r="D93" t="s">
-        <v>284</v>
+        <v>259</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>285</v>
+        <v>260</v>
       </c>
       <c r="F93" t="s">
-        <v>286</v>
-      </c>
-      <c r="G93" t="s">
-        <v>287</v>
+        <v>261</v>
+      </c>
+      <c r="G93" s="9" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
@@ -3732,22 +3798,22 @@
         <v>95</v>
       </c>
       <c r="B94" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="C94">
         <v>1</v>
       </c>
       <c r="D94" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="F94" t="s">
-        <v>291</v>
-      </c>
-      <c r="G94" t="s">
-        <v>292</v>
+        <v>277</v>
+      </c>
+      <c r="G94" s="9" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
@@ -3755,22 +3821,22 @@
         <v>96</v>
       </c>
       <c r="B95" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="C95">
         <v>1</v>
       </c>
       <c r="D95" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="E95" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="F95" t="s">
-        <v>295</v>
-      </c>
-      <c r="G95" t="s">
-        <v>296</v>
+        <v>280</v>
+      </c>
+      <c r="G95" s="9" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
@@ -3778,22 +3844,22 @@
         <v>97</v>
       </c>
       <c r="B96" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="C96">
         <v>1</v>
       </c>
       <c r="D96" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="F96" t="s">
-        <v>299</v>
-      </c>
-      <c r="G96" t="s">
-        <v>300</v>
+        <v>284</v>
+      </c>
+      <c r="G96" s="9" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
@@ -3801,22 +3867,22 @@
         <v>98</v>
       </c>
       <c r="B97" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
       <c r="C97">
         <v>1</v>
       </c>
       <c r="D97" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="F97" t="s">
-        <v>304</v>
-      </c>
-      <c r="G97" t="s">
-        <v>305</v>
+        <v>289</v>
+      </c>
+      <c r="G97" s="9" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
@@ -3824,22 +3890,22 @@
         <v>99</v>
       </c>
       <c r="B98" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
       <c r="C98">
         <v>1</v>
       </c>
       <c r="D98" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="F98" t="s">
-        <v>308</v>
-      </c>
-      <c r="G98" t="s">
-        <v>309</v>
+        <v>292</v>
+      </c>
+      <c r="G98" s="9" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
@@ -3847,22 +3913,22 @@
         <v>100</v>
       </c>
       <c r="B99" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
       <c r="C99">
         <v>1</v>
       </c>
       <c r="D99" t="s">
-        <v>310</v>
+        <v>293</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>311</v>
+        <v>294</v>
       </c>
       <c r="F99" t="s">
-        <v>312</v>
-      </c>
-      <c r="G99" t="s">
-        <v>313</v>
+        <v>295</v>
+      </c>
+      <c r="G99" s="9" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -3870,22 +3936,22 @@
         <v>101</v>
       </c>
       <c r="B100" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
       <c r="C100">
         <v>1</v>
       </c>
       <c r="D100" t="s">
-        <v>314</v>
+        <v>296</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
       <c r="F100" t="s">
-        <v>316</v>
-      </c>
-      <c r="G100" t="s">
-        <v>317</v>
+        <v>298</v>
+      </c>
+      <c r="G100" s="9" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -3893,22 +3959,22 @@
         <v>104</v>
       </c>
       <c r="B101" t="s">
-        <v>325</v>
+        <v>306</v>
       </c>
       <c r="C101">
         <v>2</v>
       </c>
       <c r="D101" t="s">
-        <v>326</v>
+        <v>307</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>327</v>
+        <v>308</v>
       </c>
       <c r="F101" t="s">
-        <v>328</v>
-      </c>
-      <c r="G101" t="s">
-        <v>329</v>
+        <v>309</v>
+      </c>
+      <c r="G101" s="9" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
@@ -3916,22 +3982,22 @@
         <v>105</v>
       </c>
       <c r="B102" t="s">
-        <v>325</v>
+        <v>306</v>
       </c>
       <c r="C102">
         <v>2</v>
       </c>
       <c r="D102" t="s">
-        <v>330</v>
+        <v>311</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>331</v>
+        <v>312</v>
       </c>
       <c r="F102" t="s">
-        <v>332</v>
-      </c>
-      <c r="G102" t="s">
-        <v>251</v>
+        <v>313</v>
+      </c>
+      <c r="G102" s="9" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
@@ -3939,22 +4005,22 @@
         <v>106</v>
       </c>
       <c r="B103" t="s">
-        <v>325</v>
+        <v>306</v>
       </c>
       <c r="C103">
         <v>2</v>
       </c>
       <c r="D103" t="s">
-        <v>333</v>
+        <v>314</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>334</v>
+        <v>315</v>
       </c>
       <c r="F103" t="s">
-        <v>335</v>
-      </c>
-      <c r="G103" t="s">
-        <v>211</v>
+        <v>316</v>
+      </c>
+      <c r="G103" s="9" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
@@ -3962,22 +4028,22 @@
         <v>107</v>
       </c>
       <c r="B104" t="s">
-        <v>325</v>
+        <v>306</v>
       </c>
       <c r="C104">
         <v>2</v>
       </c>
       <c r="D104" t="s">
-        <v>336</v>
+        <v>317</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>337</v>
+        <v>318</v>
       </c>
       <c r="F104" t="s">
-        <v>338</v>
-      </c>
-      <c r="G104" t="s">
-        <v>141</v>
+        <v>319</v>
+      </c>
+      <c r="G104" s="9" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
@@ -3985,22 +4051,22 @@
         <v>102</v>
       </c>
       <c r="B105" t="s">
-        <v>318</v>
+        <v>299</v>
       </c>
       <c r="C105">
         <v>2</v>
       </c>
       <c r="D105" t="s">
-        <v>319</v>
+        <v>300</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>320</v>
+        <v>301</v>
       </c>
       <c r="F105" t="s">
-        <v>321</v>
-      </c>
-      <c r="G105" t="s">
-        <v>141</v>
+        <v>302</v>
+      </c>
+      <c r="G105" s="9" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
@@ -4008,160 +4074,160 @@
         <v>103</v>
       </c>
       <c r="B106" t="s">
-        <v>318</v>
+        <v>299</v>
       </c>
       <c r="C106">
         <v>2</v>
       </c>
       <c r="D106" t="s">
-        <v>322</v>
+        <v>303</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>323</v>
+        <v>304</v>
       </c>
       <c r="F106" t="s">
-        <v>324</v>
-      </c>
-      <c r="G106" t="s">
-        <v>251</v>
+        <v>305</v>
+      </c>
+      <c r="G106" s="9" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B107" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C107">
         <v>1</v>
       </c>
       <c r="D107" t="s">
-        <v>127</v>
-      </c>
-      <c r="E107" s="4" t="s">
-        <v>128</v>
+        <v>132</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>133</v>
       </c>
       <c r="F107" t="s">
-        <v>129</v>
-      </c>
-      <c r="G107" t="s">
-        <v>364</v>
+        <v>134</v>
+      </c>
+      <c r="G107" s="11" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B108" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C108">
         <v>1</v>
       </c>
       <c r="D108" t="s">
-        <v>130</v>
-      </c>
-      <c r="E108" s="4" t="s">
-        <v>131</v>
+        <v>350</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>135</v>
       </c>
       <c r="F108" t="s">
-        <v>132</v>
-      </c>
-      <c r="G108" t="s">
-        <v>366</v>
+        <v>136</v>
+      </c>
+      <c r="G108" s="9" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B109" t="s">
+        <v>122</v>
+      </c>
+      <c r="C109">
+        <v>1</v>
+      </c>
+      <c r="D109" t="s">
         <v>126</v>
       </c>
-      <c r="C109">
-        <v>1</v>
-      </c>
-      <c r="D109" t="s">
-        <v>133</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>134</v>
+      <c r="E109" s="4" t="s">
+        <v>127</v>
       </c>
       <c r="F109" t="s">
-        <v>135</v>
-      </c>
-      <c r="G109" t="s">
-        <v>135</v>
+        <v>128</v>
+      </c>
+      <c r="G109" s="11" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B110" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C110">
         <v>1</v>
       </c>
       <c r="D110" t="s">
-        <v>136</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>137</v>
+        <v>123</v>
+      </c>
+      <c r="E110" s="4" t="s">
+        <v>124</v>
       </c>
       <c r="F110" t="s">
-        <v>138</v>
-      </c>
-      <c r="G110" t="s">
-        <v>211</v>
+        <v>125</v>
+      </c>
+      <c r="G110" s="11" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B111" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C111">
         <v>1</v>
       </c>
       <c r="D111" t="s">
-        <v>139</v>
+        <v>351</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F111" t="s">
-        <v>141</v>
-      </c>
-      <c r="G111" t="s">
-        <v>141</v>
+        <v>138</v>
+      </c>
+      <c r="G111" s="11" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B112" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C112">
         <v>1</v>
       </c>
       <c r="D112" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="F112" t="s">
-        <v>144</v>
-      </c>
-      <c r="G112" t="s">
-        <v>144</v>
+        <v>131</v>
+      </c>
+      <c r="G112" s="9" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
@@ -4169,22 +4235,22 @@
         <v>49</v>
       </c>
       <c r="B113" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C113">
         <v>1</v>
       </c>
       <c r="D113" t="s">
-        <v>145</v>
+        <v>352</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="F113" t="s">
-        <v>147</v>
-      </c>
-      <c r="G113" t="s">
-        <v>147</v>
+        <v>140</v>
+      </c>
+      <c r="G113" s="9" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
@@ -4192,22 +4258,22 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>354</v>
+        <v>334</v>
       </c>
       <c r="C114">
         <v>1</v>
       </c>
       <c r="D114" t="s">
-        <v>355</v>
+        <v>335</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>356</v>
+        <v>336</v>
       </c>
       <c r="F114" t="s">
-        <v>357</v>
-      </c>
-      <c r="G114" t="s">
-        <v>141</v>
+        <v>337</v>
+      </c>
+      <c r="G114" s="9" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
@@ -4215,22 +4281,22 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>354</v>
+        <v>334</v>
       </c>
       <c r="C115">
         <v>1</v>
       </c>
       <c r="D115" t="s">
-        <v>358</v>
+        <v>338</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>359</v>
+        <v>339</v>
       </c>
       <c r="F115" t="s">
-        <v>360</v>
-      </c>
-      <c r="G115" t="s">
-        <v>144</v>
+        <v>340</v>
+      </c>
+      <c r="G115" s="9" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
@@ -4238,22 +4304,22 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>354</v>
+        <v>334</v>
       </c>
       <c r="C116">
         <v>1</v>
       </c>
       <c r="D116" t="s">
-        <v>361</v>
+        <v>341</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>362</v>
+        <v>342</v>
       </c>
       <c r="F116" t="s">
-        <v>363</v>
-      </c>
-      <c r="G116" t="s">
-        <v>198</v>
+        <v>343</v>
+      </c>
+      <c r="G116" s="9" t="s">
+        <v>386</v>
       </c>
     </row>
   </sheetData>
@@ -4267,15 +4333,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006BF094976B1C6245BAB5BCECAC284645" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="579d0760968303502ff8eb3a8a5e610f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="69276225-f05c-44c5-92dc-c999460a4149" xmlns:ns3="46f3a809-46a3-44ee-a0f1-42a271529c86" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6855c386bbcb23a4cad2dada315b1779" ns2:_="" ns3:_="">
     <xsd:import namespace="69276225-f05c-44c5-92dc-c999460a4149"/>
@@ -4524,7 +4581,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="46f3a809-46a3-44ee-a0f1-42a271529c86">
@@ -4535,15 +4592,16 @@
 </p:properties>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A3263D7-CA43-48BC-8F28-1FA6213EFCDC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61F40AB6-ADCC-4E1B-8187-C1134CB7C097}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4562,7 +4620,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51C746D7-CF54-4E7D-92A4-AB36B233844F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -4571,4 +4629,12 @@
     <ds:schemaRef ds:uri="69276225-f05c-44c5-92dc-c999460a4149"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A3263D7-CA43-48BC-8F28-1FA6213EFCDC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data-viz/inputs/region_labels.xlsx
+++ b/data-viz/inputs/region_labels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wjproject.sharepoint.com/research/Programmatic/EU Subnational/EU-S Data/reports/eu-gpp-report/data-viz/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="100" documentId="8_{6626208B-8827-4CBE-9772-3AA277DEA2CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{48F1E196-DF6B-444C-B988-5E65BA2ECABA}"/>
+  <xr:revisionPtr revIDLastSave="302" documentId="8_{6626208B-8827-4CBE-9772-3AA277DEA2CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8D3D107F-F7D5-4918-A927-A3048FBCF183}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-30" windowWidth="29040" windowHeight="15720" xr2:uid="{DD3ABE5B-D581-4517-9DBD-9419A819EBBB}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{DD3ABE5B-D581-4517-9DBD-9419A819EBBB}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="390">
   <si>
     <t>#</t>
   </si>
@@ -1212,15 +1212,25 @@
   <si>
     <t>Northern Sweden</t>
   </si>
+  <si>
+    <t>countrypop</t>
+  </si>
+  <si>
+    <t>regionpop</t>
+  </si>
+  <si>
+    <t>regionpoppct</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1258,6 +1268,22 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1300,7 +1326,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1324,6 +1350,11 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1640,21 +1671,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7B15BD7-531B-4529-B0B4-38B6E533B250}">
-  <dimension ref="A1:G116"/>
+  <dimension ref="A1:J116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" topLeftCell="B88" workbookViewId="0">
+      <selection activeCell="I107" sqref="I107"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="49.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.44140625" customWidth="1"/>
+    <col min="5" max="5" width="49.21875" customWidth="1"/>
+    <col min="6" max="6" width="38" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="27.21875" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="11.44140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1676,8 +1709,17 @@
       <c r="G1" s="1" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>85</v>
       </c>
@@ -1699,8 +1741,18 @@
       <c r="G2" s="9" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="13">
+        <v>9104772</v>
+      </c>
+      <c r="I2" s="13">
+        <v>4001720</v>
+      </c>
+      <c r="J2" s="14">
+        <f>I2/H2</f>
+        <v>0.43951896873419782</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>86</v>
       </c>
@@ -1722,8 +1774,18 @@
       <c r="G3" s="9" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" s="13">
+        <v>9104772</v>
+      </c>
+      <c r="I3" s="13">
+        <v>1834182</v>
+      </c>
+      <c r="J3" s="14">
+        <f t="shared" ref="J3:J66" si="0">I3/H3</f>
+        <v>0.20145282056486422</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>87</v>
       </c>
@@ -1745,8 +1807,18 @@
       <c r="G4" s="9" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" s="13">
+        <v>9104772</v>
+      </c>
+      <c r="I4" s="13">
+        <v>3268870</v>
+      </c>
+      <c r="J4" s="14">
+        <f t="shared" si="0"/>
+        <v>0.35902821070093793</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1768,8 +1840,18 @@
       <c r="G5" s="9" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" s="13">
+        <v>11742796</v>
+      </c>
+      <c r="I5" s="13">
+        <v>1253178</v>
+      </c>
+      <c r="J5" s="14">
+        <f t="shared" si="0"/>
+        <v>0.10671887683308132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2</v>
       </c>
@@ -1791,8 +1873,18 @@
       <c r="G6" s="9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" s="13">
+        <v>11742796</v>
+      </c>
+      <c r="I6" s="13">
+        <v>6787969</v>
+      </c>
+      <c r="J6" s="14">
+        <f t="shared" si="0"/>
+        <v>0.57805389789620798</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>3</v>
       </c>
@@ -1814,8 +1906,18 @@
       <c r="G7" s="9" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" s="13">
+        <v>11742796</v>
+      </c>
+      <c r="I7" s="13">
+        <v>3701649</v>
+      </c>
+      <c r="J7" s="14">
+        <f t="shared" si="0"/>
+        <v>0.31522722527071068</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>4</v>
       </c>
@@ -1837,8 +1939,18 @@
       <c r="G8" s="10" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" s="13">
+        <v>6447710</v>
+      </c>
+      <c r="I8" s="13">
+        <v>3130130</v>
+      </c>
+      <c r="J8" s="14">
+        <f t="shared" si="0"/>
+        <v>0.485463831344772</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>5</v>
       </c>
@@ -1860,8 +1972,18 @@
       <c r="G9" s="10" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" s="13">
+        <v>6447710</v>
+      </c>
+      <c r="I9" s="13">
+        <v>3317580</v>
+      </c>
+      <c r="J9" s="14">
+        <f t="shared" si="0"/>
+        <v>0.514536168655228</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>63</v>
       </c>
@@ -1883,8 +2005,18 @@
       <c r="G10" s="9" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" s="13">
+        <v>3850894</v>
+      </c>
+      <c r="I10" s="13">
+        <v>999106</v>
+      </c>
+      <c r="J10" s="14">
+        <f t="shared" si="0"/>
+        <v>0.25944780614579366</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>64</v>
       </c>
@@ -1906,8 +2038,18 @@
       <c r="G11" s="9" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11" s="13">
+        <v>3850894</v>
+      </c>
+      <c r="I11" s="13">
+        <v>1297987</v>
+      </c>
+      <c r="J11" s="14">
+        <f t="shared" si="0"/>
+        <v>0.33706121227953822</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>65</v>
       </c>
@@ -1929,8 +2071,18 @@
       <c r="G12" s="10" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12" s="13">
+        <v>3850894</v>
+      </c>
+      <c r="I12" s="13">
+        <v>768624</v>
+      </c>
+      <c r="J12" s="14">
+        <f t="shared" si="0"/>
+        <v>0.19959624959814526</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>66</v>
       </c>
@@ -1952,8 +2104,18 @@
       <c r="G13" s="9" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13" s="13">
+        <v>3850894</v>
+      </c>
+      <c r="I13" s="13">
+        <v>785177</v>
+      </c>
+      <c r="J13" s="14">
+        <f t="shared" si="0"/>
+        <v>0.20389473197652286</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>72</v>
       </c>
@@ -1975,8 +2137,18 @@
       <c r="G14" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14" s="13">
+        <v>920701</v>
+      </c>
+      <c r="I14" s="13">
+        <v>920701</v>
+      </c>
+      <c r="J14" s="14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>6</v>
       </c>
@@ -1998,8 +2170,18 @@
       <c r="G15" s="9" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15" s="13">
+        <v>10827529</v>
+      </c>
+      <c r="I15" s="13">
+        <v>1357326</v>
+      </c>
+      <c r="J15" s="14">
+        <f t="shared" si="0"/>
+        <v>0.12535879608357547</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>7</v>
       </c>
@@ -2021,8 +2203,18 @@
       <c r="G16" s="9" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16" s="13">
+        <v>10827529</v>
+      </c>
+      <c r="I16" s="13">
+        <v>1439391</v>
+      </c>
+      <c r="J16" s="14">
+        <f t="shared" si="0"/>
+        <v>0.13293808772066093</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>12</v>
       </c>
@@ -2044,8 +2236,18 @@
       <c r="G17" s="9" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17" s="13">
+        <v>10827529</v>
+      </c>
+      <c r="I17" s="13">
+        <v>1212333</v>
+      </c>
+      <c r="J17" s="14">
+        <f t="shared" si="0"/>
+        <v>0.11196765208386882</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>13</v>
       </c>
@@ -2067,8 +2269,18 @@
       <c r="G18" s="9" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18" s="13">
+        <v>10827529</v>
+      </c>
+      <c r="I18" s="13">
+        <v>1189674</v>
+      </c>
+      <c r="J18" s="14">
+        <f t="shared" si="0"/>
+        <v>0.10987493083601993</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>10</v>
       </c>
@@ -2090,8 +2302,18 @@
       <c r="G19" s="11" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19" s="13">
+        <v>10827529</v>
+      </c>
+      <c r="I19" s="13">
+        <v>1533205</v>
+      </c>
+      <c r="J19" s="14">
+        <f t="shared" si="0"/>
+        <v>0.14160248381694476</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>9</v>
       </c>
@@ -2113,8 +2335,18 @@
       <c r="G20" s="11" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20" s="13">
+        <v>10827529</v>
+      </c>
+      <c r="I20" s="13">
+        <v>1105932</v>
+      </c>
+      <c r="J20" s="14">
+        <f t="shared" si="0"/>
+        <v>0.10214075621501452</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>11</v>
       </c>
@@ -2136,8 +2368,18 @@
       <c r="G21" s="9" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21" s="13">
+        <v>10827529</v>
+      </c>
+      <c r="I21" s="13">
+        <v>1731977</v>
+      </c>
+      <c r="J21" s="14">
+        <f t="shared" si="0"/>
+        <v>0.15996050437731452</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>8</v>
       </c>
@@ -2159,8 +2401,18 @@
       <c r="G22" s="9" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22" s="13">
+        <v>10827529</v>
+      </c>
+      <c r="I22" s="13">
+        <v>1257691</v>
+      </c>
+      <c r="J22" s="14">
+        <f t="shared" si="0"/>
+        <v>0.11615678886660105</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>14</v>
       </c>
@@ -2182,8 +2434,18 @@
       <c r="G23" s="9" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23" s="13">
+        <v>5932654</v>
+      </c>
+      <c r="I23" s="13">
+        <v>1891871</v>
+      </c>
+      <c r="J23" s="14">
+        <f t="shared" si="0"/>
+        <v>0.31889117416926727</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>15</v>
       </c>
@@ -2205,8 +2467,18 @@
       <c r="G24" s="9" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H24" s="13">
+        <v>5932654</v>
+      </c>
+      <c r="I24" s="13">
+        <v>849857</v>
+      </c>
+      <c r="J24" s="14">
+        <f t="shared" si="0"/>
+        <v>0.14325072724618695</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>16</v>
       </c>
@@ -2228,8 +2500,18 @@
       <c r="G25" s="9" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H25" s="13">
+        <v>5932654</v>
+      </c>
+      <c r="I25" s="13">
+        <v>1237413</v>
+      </c>
+      <c r="J25" s="14">
+        <f t="shared" si="0"/>
+        <v>0.20857663366176418</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>17</v>
       </c>
@@ -2251,8 +2533,18 @@
       <c r="G26" s="9" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H26" s="13">
+        <v>5932654</v>
+      </c>
+      <c r="I26" s="13">
+        <v>1358879</v>
+      </c>
+      <c r="J26" s="14">
+        <f t="shared" si="0"/>
+        <v>0.22905077558880055</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>18</v>
       </c>
@@ -2274,8 +2566,18 @@
       <c r="G27" s="9" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H27" s="13">
+        <v>5932654</v>
+      </c>
+      <c r="I27" s="13">
+        <v>594634</v>
+      </c>
+      <c r="J27" s="14">
+        <f t="shared" si="0"/>
+        <v>0.10023068933398105</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>35</v>
       </c>
@@ -2297,8 +2599,18 @@
       <c r="G28" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H28" s="13">
+        <v>1365884</v>
+      </c>
+      <c r="I28" s="13">
+        <v>1365884</v>
+      </c>
+      <c r="J28" s="14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>108</v>
       </c>
@@ -2320,8 +2632,18 @@
       <c r="G29" s="9" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H29" s="13">
+        <v>5563970</v>
+      </c>
+      <c r="I29" s="13">
+        <v>1384761</v>
+      </c>
+      <c r="J29" s="14">
+        <f t="shared" si="0"/>
+        <v>0.24888002631214762</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>109</v>
       </c>
@@ -2343,8 +2665,18 @@
       <c r="G30" s="9" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H30" s="13">
+        <v>5563970</v>
+      </c>
+      <c r="I30" s="13">
+        <v>1733033</v>
+      </c>
+      <c r="J30" s="14">
+        <f t="shared" si="0"/>
+        <v>0.31147418120514669</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>110</v>
       </c>
@@ -2366,8 +2698,18 @@
       <c r="G31" s="9" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H31" s="13">
+        <v>5563970</v>
+      </c>
+      <c r="I31" s="13">
+        <v>1144473</v>
+      </c>
+      <c r="J31" s="14">
+        <f t="shared" si="0"/>
+        <v>0.20569359647877325</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>111</v>
       </c>
@@ -2389,8 +2731,18 @@
       <c r="G32" s="9" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H32" s="13">
+        <v>5563970</v>
+      </c>
+      <c r="I32" s="13">
+        <v>1271344</v>
+      </c>
+      <c r="J32" s="14">
+        <f t="shared" si="0"/>
+        <v>0.22849584020043243</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>112</v>
       </c>
@@ -2412,8 +2764,18 @@
       <c r="G33" s="9" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H33" s="13">
+        <v>5563970</v>
+      </c>
+      <c r="I33" s="13">
+        <v>30359</v>
+      </c>
+      <c r="J33" s="14">
+        <f t="shared" si="0"/>
+        <v>5.4563558035000187E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>50</v>
       </c>
@@ -2435,8 +2797,18 @@
       <c r="G34" s="9" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H34" s="13">
+        <v>68172977</v>
+      </c>
+      <c r="I34" s="13">
+        <v>12388388</v>
+      </c>
+      <c r="J34" s="14">
+        <f t="shared" si="0"/>
+        <v>0.18171992107664595</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>51</v>
       </c>
@@ -2458,8 +2830,18 @@
       <c r="G35" s="9" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H35" s="13">
+        <v>68172977</v>
+      </c>
+      <c r="I35" s="13">
+        <v>2572735</v>
+      </c>
+      <c r="J35" s="14">
+        <f t="shared" si="0"/>
+        <v>3.7738340222402196E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>52</v>
       </c>
@@ -2481,8 +2863,18 @@
       <c r="G36" s="9" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H36" s="13">
+        <v>68172977</v>
+      </c>
+      <c r="I36" s="13">
+        <v>2793968</v>
+      </c>
+      <c r="J36" s="14">
+        <f t="shared" si="0"/>
+        <v>4.0983511692616853E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>53</v>
       </c>
@@ -2504,8 +2896,18 @@
       <c r="G37" s="9" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H37" s="13">
+        <v>68172977</v>
+      </c>
+      <c r="I37" s="13">
+        <v>3326575</v>
+      </c>
+      <c r="J37" s="14">
+        <f t="shared" si="0"/>
+        <v>4.8796094088717878E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>54</v>
       </c>
@@ -2527,8 +2929,18 @@
       <c r="G38" s="9" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H38" s="13">
+        <v>68172977</v>
+      </c>
+      <c r="I38" s="13">
+        <v>5986464</v>
+      </c>
+      <c r="J38" s="14">
+        <f t="shared" si="0"/>
+        <v>8.7812858751936271E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>55</v>
       </c>
@@ -2550,8 +2962,18 @@
       <c r="G39" s="9" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H39" s="13">
+        <v>68172977</v>
+      </c>
+      <c r="I39" s="13">
+        <v>5565282</v>
+      </c>
+      <c r="J39" s="14">
+        <f t="shared" si="0"/>
+        <v>8.1634721628776746E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>56</v>
       </c>
@@ -2573,8 +2995,18 @@
       <c r="G40" s="9" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H40" s="13">
+        <v>68172977</v>
+      </c>
+      <c r="I40" s="13">
+        <v>3902115</v>
+      </c>
+      <c r="J40" s="14">
+        <f t="shared" si="0"/>
+        <v>5.7238442146952159E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>57</v>
       </c>
@@ -2596,8 +3028,18 @@
       <c r="G41" s="9" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H41" s="13">
+        <v>68172977</v>
+      </c>
+      <c r="I41" s="13">
+        <v>3432901</v>
+      </c>
+      <c r="J41" s="14">
+        <f t="shared" si="0"/>
+        <v>5.0355744329604379E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>58</v>
       </c>
@@ -2619,8 +3061,18 @@
       <c r="G42" s="9" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H42" s="13">
+        <v>68172977</v>
+      </c>
+      <c r="I42" s="13">
+        <v>6125089</v>
+      </c>
+      <c r="J42" s="14">
+        <f t="shared" si="0"/>
+        <v>8.9846289094871121E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>59</v>
       </c>
@@ -2642,8 +3094,18 @@
       <c r="G43" s="9" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H43" s="13">
+        <v>68172977</v>
+      </c>
+      <c r="I43" s="13">
+        <v>6110099</v>
+      </c>
+      <c r="J43" s="14">
+        <f t="shared" si="0"/>
+        <v>8.9626407249312284E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>60</v>
       </c>
@@ -2665,8 +3127,18 @@
       <c r="G44" s="9" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H44" s="13">
+        <v>68172977</v>
+      </c>
+      <c r="I44" s="13">
+        <v>8195542</v>
+      </c>
+      <c r="J44" s="14">
+        <f t="shared" si="0"/>
+        <v>0.12021687126850863</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>61</v>
       </c>
@@ -2688,8 +3160,18 @@
       <c r="G45" s="10" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H45" s="13">
+        <v>68172977</v>
+      </c>
+      <c r="I45" s="13">
+        <v>5173952</v>
+      </c>
+      <c r="J45" s="14">
+        <f t="shared" si="0"/>
+        <v>7.5894470619934928E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>62</v>
       </c>
@@ -2711,8 +3193,18 @@
       <c r="G46" s="9" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H46" s="13">
+        <v>68172977</v>
+      </c>
+      <c r="I46" s="13">
+        <v>352851</v>
+      </c>
+      <c r="J46" s="14">
+        <f t="shared" si="0"/>
+        <v>5.1758191519199756E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>19</v>
       </c>
@@ -2734,8 +3226,18 @@
       <c r="G47" s="9" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H47" s="13">
+        <v>84358845</v>
+      </c>
+      <c r="I47" s="13">
+        <v>11280257</v>
+      </c>
+      <c r="J47" s="14">
+        <f t="shared" si="0"/>
+        <v>0.13371753726595001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>20</v>
       </c>
@@ -2757,8 +3259,18 @@
       <c r="G48" s="9" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H48" s="13">
+        <v>84358845</v>
+      </c>
+      <c r="I48" s="13">
+        <v>13369393</v>
+      </c>
+      <c r="J48" s="14">
+        <f t="shared" si="0"/>
+        <v>0.15848240928381607</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>21</v>
       </c>
@@ -2780,8 +3292,18 @@
       <c r="G49" s="9" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H49" s="13">
+        <v>84358845</v>
+      </c>
+      <c r="I49" s="13">
+        <v>3755251</v>
+      </c>
+      <c r="J49" s="14">
+        <f t="shared" si="0"/>
+        <v>4.4515201695803211E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>22</v>
       </c>
@@ -2803,8 +3325,18 @@
       <c r="G50" s="9" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H50" s="13">
+        <v>84358845</v>
+      </c>
+      <c r="I50" s="13">
+        <v>2573135</v>
+      </c>
+      <c r="J50" s="14">
+        <f t="shared" si="0"/>
+        <v>3.0502254979901635E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>23</v>
       </c>
@@ -2826,8 +3358,18 @@
       <c r="G51" s="9" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H51" s="13">
+        <v>84358845</v>
+      </c>
+      <c r="I51" s="13">
+        <v>684864</v>
+      </c>
+      <c r="J51" s="14">
+        <f t="shared" si="0"/>
+        <v>8.1184610813483746E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>24</v>
       </c>
@@ -2849,8 +3391,18 @@
       <c r="G52" s="9" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H52" s="13">
+        <v>84358845</v>
+      </c>
+      <c r="I52" s="13">
+        <v>1892122</v>
+      </c>
+      <c r="J52" s="14">
+        <f t="shared" si="0"/>
+        <v>2.2429444120530575E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>25</v>
       </c>
@@ -2872,8 +3424,18 @@
       <c r="G53" s="9" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H53" s="13">
+        <v>84358845</v>
+      </c>
+      <c r="I53" s="13">
+        <v>6391360</v>
+      </c>
+      <c r="J53" s="14">
+        <f t="shared" si="0"/>
+        <v>7.5763958124367398E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>26</v>
       </c>
@@ -2895,8 +3457,18 @@
       <c r="G54" s="10" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H54" s="13">
+        <v>84358845</v>
+      </c>
+      <c r="I54" s="13">
+        <v>1628378</v>
+      </c>
+      <c r="J54" s="14">
+        <f t="shared" si="0"/>
+        <v>1.9302990694099711E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>27</v>
       </c>
@@ -2918,8 +3490,18 @@
       <c r="G55" s="9" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H55" s="13">
+        <v>84358845</v>
+      </c>
+      <c r="I55" s="13">
+        <v>8140242</v>
+      </c>
+      <c r="J55" s="14">
+        <f t="shared" si="0"/>
+        <v>9.6495417878231973E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>28</v>
       </c>
@@ -2941,8 +3523,18 @@
       <c r="G56" s="9" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H56" s="13">
+        <v>84358845</v>
+      </c>
+      <c r="I56" s="13">
+        <v>18139116</v>
+      </c>
+      <c r="J56" s="14">
+        <f t="shared" si="0"/>
+        <v>0.2150232853472567</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>29</v>
       </c>
@@ -2964,8 +3556,18 @@
       <c r="G57" s="9" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H57" s="13">
+        <v>84358845</v>
+      </c>
+      <c r="I57" s="13">
+        <v>4159150</v>
+      </c>
+      <c r="J57" s="14">
+        <f t="shared" si="0"/>
+        <v>4.9303069524007828E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>30</v>
       </c>
@@ -2987,8 +3589,18 @@
       <c r="G58" s="9" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H58" s="13">
+        <v>84358845</v>
+      </c>
+      <c r="I58" s="13">
+        <v>992666</v>
+      </c>
+      <c r="J58" s="14">
+        <f t="shared" si="0"/>
+        <v>1.1767183393750828E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>31</v>
       </c>
@@ -3010,8 +3622,18 @@
       <c r="G59" s="9" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H59" s="13">
+        <v>84358845</v>
+      </c>
+      <c r="I59" s="13">
+        <v>4086152</v>
+      </c>
+      <c r="J59" s="14">
+        <f t="shared" si="0"/>
+        <v>4.8437742361218908E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>32</v>
       </c>
@@ -3033,8 +3655,18 @@
       <c r="G60" s="9" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H60" s="13">
+        <v>84358845</v>
+      </c>
+      <c r="I60" s="13">
+        <v>2186643</v>
+      </c>
+      <c r="J60" s="14">
+        <f t="shared" si="0"/>
+        <v>2.5920731845012816E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>33</v>
       </c>
@@ -3056,8 +3688,18 @@
       <c r="G61" s="9" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H61" s="13">
+        <v>84358845</v>
+      </c>
+      <c r="I61" s="13">
+        <v>2953270</v>
+      </c>
+      <c r="J61" s="14">
+        <f t="shared" si="0"/>
+        <v>3.5008421464281549E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>34</v>
       </c>
@@ -3079,8 +3721,18 @@
       <c r="G62" s="9" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H62" s="13">
+        <v>84358845</v>
+      </c>
+      <c r="I62" s="13">
+        <v>2126846</v>
+      </c>
+      <c r="J62" s="14">
+        <f t="shared" si="0"/>
+        <v>2.5211890940422432E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>39</v>
       </c>
@@ -3102,8 +3754,18 @@
       <c r="G63" s="9" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H63" s="13">
+        <v>10413982</v>
+      </c>
+      <c r="I63" s="13">
+        <v>3790842</v>
+      </c>
+      <c r="J63" s="14">
+        <f t="shared" si="0"/>
+        <v>0.36401464876739753</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>40</v>
       </c>
@@ -3125,8 +3787,18 @@
       <c r="G64" s="9" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H64" s="13">
+        <v>10413982</v>
+      </c>
+      <c r="I64" s="13">
+        <v>1145363</v>
+      </c>
+      <c r="J64" s="14">
+        <f t="shared" si="0"/>
+        <v>0.10998319374855843</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>41</v>
       </c>
@@ -3148,8 +3820,18 @@
       <c r="G65" s="10" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H65" s="13">
+        <v>10413982</v>
+      </c>
+      <c r="I65" s="13">
+        <v>2911703</v>
+      </c>
+      <c r="J65" s="14">
+        <f t="shared" si="0"/>
+        <v>0.27959554760129218</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>42</v>
       </c>
@@ -3171,8 +3853,18 @@
       <c r="G66" s="9" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H66" s="13">
+        <v>10413982</v>
+      </c>
+      <c r="I66" s="13">
+        <v>2566074</v>
+      </c>
+      <c r="J66" s="14">
+        <f t="shared" si="0"/>
+        <v>0.24640660988275187</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>77</v>
       </c>
@@ -3194,8 +3886,18 @@
       <c r="G67" s="9" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H67" s="13">
+        <v>9599744</v>
+      </c>
+      <c r="I67" s="13">
+        <v>2999794</v>
+      </c>
+      <c r="J67" s="14">
+        <f t="shared" ref="J67:J116" si="1">I67/H67</f>
+        <v>0.31248687464999064</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>78</v>
       </c>
@@ -3217,8 +3919,18 @@
       <c r="G68" s="9" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H68" s="13">
+        <v>9599744</v>
+      </c>
+      <c r="I68" s="13">
+        <v>2900998</v>
+      </c>
+      <c r="J68" s="14">
+        <f t="shared" si="1"/>
+        <v>0.30219535020933891</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>79</v>
       </c>
@@ -3240,8 +3952,18 @@
       <c r="G69" s="9" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H69" s="13">
+        <v>9599744</v>
+      </c>
+      <c r="I69" s="13">
+        <v>3698952</v>
+      </c>
+      <c r="J69" s="14">
+        <f t="shared" si="1"/>
+        <v>0.38531777514067039</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>38</v>
       </c>
@@ -3263,8 +3985,18 @@
       <c r="G70" s="9" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H70" s="13">
+        <v>5271395</v>
+      </c>
+      <c r="I70" s="13">
+        <v>2600007</v>
+      </c>
+      <c r="J70" s="14">
+        <f t="shared" si="1"/>
+        <v>0.49322940132545562</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>36</v>
       </c>
@@ -3286,8 +4018,18 @@
       <c r="G71" s="9" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H71" s="13">
+        <v>5271395</v>
+      </c>
+      <c r="I71" s="13">
+        <v>930208</v>
+      </c>
+      <c r="J71" s="14">
+        <f t="shared" si="1"/>
+        <v>0.17646334604027966</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>37</v>
       </c>
@@ -3309,8 +4051,18 @@
       <c r="G72" s="12" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H72" s="13">
+        <v>5271395</v>
+      </c>
+      <c r="I72" s="13">
+        <v>1741180</v>
+      </c>
+      <c r="J72" s="14">
+        <f t="shared" si="1"/>
+        <v>0.33030725263426475</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>71</v>
       </c>
@@ -3332,8 +4084,18 @@
       <c r="G73" s="11" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H73" s="13">
+        <v>58997201</v>
+      </c>
+      <c r="I73" s="13">
+        <v>11723222</v>
+      </c>
+      <c r="J73" s="14">
+        <f t="shared" si="1"/>
+        <v>0.19870810481331139</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>70</v>
       </c>
@@ -3355,8 +4117,18 @@
       <c r="G74" s="11" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H74" s="13">
+        <v>58997201</v>
+      </c>
+      <c r="I74" s="13">
+        <v>11558522</v>
+      </c>
+      <c r="J74" s="14">
+        <f t="shared" si="1"/>
+        <v>0.19591644695144098</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>69</v>
       </c>
@@ -3378,8 +4150,18 @@
       <c r="G75" s="9" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H75" s="13">
+        <v>58997201</v>
+      </c>
+      <c r="I75" s="13">
+        <v>6392162</v>
+      </c>
+      <c r="J75" s="14">
+        <f t="shared" si="1"/>
+        <v>0.10834686886247366</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>67</v>
       </c>
@@ -3401,8 +4183,18 @@
       <c r="G76" s="11" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H76" s="13">
+        <v>58997201</v>
+      </c>
+      <c r="I76" s="13">
+        <v>15858626</v>
+      </c>
+      <c r="J76" s="14">
+        <f t="shared" si="1"/>
+        <v>0.26880302338410939</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>68</v>
       </c>
@@ -3424,8 +4216,18 @@
       <c r="G77" s="11" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H77" s="13">
+        <v>58997201</v>
+      </c>
+      <c r="I77" s="13">
+        <v>13464669</v>
+      </c>
+      <c r="J77" s="14">
+        <f t="shared" si="1"/>
+        <v>0.22822555598866462</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>73</v>
       </c>
@@ -3447,8 +4249,18 @@
       <c r="G78" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H78" s="13">
+        <v>1883008</v>
+      </c>
+      <c r="I78" s="13">
+        <v>1883008</v>
+      </c>
+      <c r="J78" s="14">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>74</v>
       </c>
@@ -3470,8 +4282,18 @@
       <c r="G79" s="9" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H79" s="13">
+        <v>2857279</v>
+      </c>
+      <c r="I79" s="13">
+        <v>848724</v>
+      </c>
+      <c r="J79" s="14">
+        <f t="shared" si="1"/>
+        <v>0.29703924607992427</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>75</v>
       </c>
@@ -3493,8 +4315,18 @@
       <c r="G80" s="10" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H80" s="13">
+        <v>2857279</v>
+      </c>
+      <c r="I80" s="13">
+        <v>2008555</v>
+      </c>
+      <c r="J80" s="14">
+        <f t="shared" si="1"/>
+        <v>0.70296075392007573</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>76</v>
       </c>
@@ -3516,8 +4348,18 @@
       <c r="G81" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H81" s="13">
+        <v>660809</v>
+      </c>
+      <c r="I81" s="13">
+        <v>660809</v>
+      </c>
+      <c r="J81" s="14">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>80</v>
       </c>
@@ -3539,8 +4381,18 @@
       <c r="G82" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H82" s="13">
+        <v>542051</v>
+      </c>
+      <c r="I82" s="13">
+        <v>542051</v>
+      </c>
+      <c r="J82" s="14">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>81</v>
       </c>
@@ -3562,8 +4414,18 @@
       <c r="G83" s="9" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H83" s="13">
+        <v>17811291</v>
+      </c>
+      <c r="I83" s="13">
+        <v>1757677</v>
+      </c>
+      <c r="J83" s="14">
+        <f t="shared" si="1"/>
+        <v>9.8683301508015339E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>82</v>
       </c>
@@ -3585,8 +4447,18 @@
       <c r="G84" s="9" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H84" s="13">
+        <v>17811291</v>
+      </c>
+      <c r="I84" s="13">
+        <v>3762742</v>
+      </c>
+      <c r="J84" s="14">
+        <f t="shared" si="1"/>
+        <v>0.21125599486303379</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>83</v>
       </c>
@@ -3608,8 +4480,18 @@
       <c r="G85" s="9" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H85" s="13">
+        <v>17811291</v>
+      </c>
+      <c r="I85" s="13">
+        <v>8536295</v>
+      </c>
+      <c r="J85" s="14">
+        <f t="shared" si="1"/>
+        <v>0.47926312584528546</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>84</v>
       </c>
@@ -3631,8 +4513,18 @@
       <c r="G86" s="9" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H86" s="13">
+        <v>17811291</v>
+      </c>
+      <c r="I86" s="13">
+        <v>3754577</v>
+      </c>
+      <c r="J86" s="14">
+        <f t="shared" si="1"/>
+        <v>0.21079757778366542</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>92</v>
       </c>
@@ -3654,8 +4546,18 @@
       <c r="G87" s="9" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H87" s="13">
+        <v>36753736</v>
+      </c>
+      <c r="I87" s="13">
+        <v>3476118</v>
+      </c>
+      <c r="J87" s="14">
+        <f t="shared" si="1"/>
+        <v>9.4578630047296414E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>93</v>
       </c>
@@ -3677,8 +4579,18 @@
       <c r="G88" s="9" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H88" s="13">
+        <v>36753736</v>
+      </c>
+      <c r="I88" s="13">
+        <v>4994586</v>
+      </c>
+      <c r="J88" s="14">
+        <f t="shared" si="1"/>
+        <v>0.13589328714773377</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>91</v>
       </c>
@@ -3700,8 +4612,18 @@
       <c r="G89" s="9" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H89" s="13">
+        <v>36753736</v>
+      </c>
+      <c r="I89" s="13">
+        <v>5542322</v>
+      </c>
+      <c r="J89" s="14">
+        <f t="shared" si="1"/>
+        <v>0.15079615307679198</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
@@ -3723,8 +4645,18 @@
       <c r="G90" s="9" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H90" s="13">
+        <v>36753736</v>
+      </c>
+      <c r="I90" s="13">
+        <v>5986070</v>
+      </c>
+      <c r="J90" s="14">
+        <f t="shared" si="1"/>
+        <v>0.16286970119173735</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>94</v>
       </c>
@@ -3746,8 +4678,18 @@
       <c r="G91" s="9" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H91" s="13">
+        <v>36753736</v>
+      </c>
+      <c r="I91" s="13">
+        <v>5479763</v>
+      </c>
+      <c r="J91" s="14">
+        <f t="shared" si="1"/>
+        <v>0.1490940403990495</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>88</v>
       </c>
@@ -3769,8 +4711,18 @@
       <c r="G92" s="12" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H92" s="13">
+        <v>36753736</v>
+      </c>
+      <c r="I92" s="13">
+        <v>7564588</v>
+      </c>
+      <c r="J92" s="14">
+        <f t="shared" si="1"/>
+        <v>0.20581820580090143</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>90</v>
       </c>
@@ -3792,8 +4744,18 @@
       <c r="G93" s="9" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H93" s="13">
+        <v>36753736</v>
+      </c>
+      <c r="I93" s="13">
+        <v>3710289</v>
+      </c>
+      <c r="J93" s="14">
+        <f t="shared" si="1"/>
+        <v>0.10094998233648955</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>95</v>
       </c>
@@ -3815,8 +4777,18 @@
       <c r="G94" s="9" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H94" s="13">
+        <v>10467366</v>
+      </c>
+      <c r="I94" s="13">
+        <v>9974165</v>
+      </c>
+      <c r="J94" s="14">
+        <f t="shared" si="1"/>
+        <v>0.95288203355075196</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>96</v>
       </c>
@@ -3838,8 +4810,18 @@
       <c r="G95" s="9" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H95" s="13">
+        <v>10467366</v>
+      </c>
+      <c r="I95" s="13">
+        <v>239942</v>
+      </c>
+      <c r="J95" s="14">
+        <f t="shared" si="1"/>
+        <v>2.2922863306776509E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>97</v>
       </c>
@@ -3861,8 +4843,18 @@
       <c r="G96" s="9" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H96" s="13">
+        <v>10467366</v>
+      </c>
+      <c r="I96" s="13">
+        <v>253259</v>
+      </c>
+      <c r="J96" s="14">
+        <f t="shared" si="1"/>
+        <v>2.4195103142471565E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>98</v>
       </c>
@@ -3884,8 +4876,18 @@
       <c r="G97" s="9" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H97" s="13">
+        <v>19054548</v>
+      </c>
+      <c r="I97" s="13">
+        <v>4812769</v>
+      </c>
+      <c r="J97" s="14">
+        <f t="shared" si="1"/>
+        <v>0.25257849202195715</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>99</v>
       </c>
@@ -3907,8 +4909,18 @@
       <c r="G98" s="9" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H98" s="13">
+        <v>19054548</v>
+      </c>
+      <c r="I98" s="13">
+        <v>5577375</v>
+      </c>
+      <c r="J98" s="14">
+        <f t="shared" si="1"/>
+        <v>0.29270570994389372</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>100</v>
       </c>
@@ -3930,8 +4942,18 @@
       <c r="G99" s="9" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H99" s="13">
+        <v>19054548</v>
+      </c>
+      <c r="I99" s="13">
+        <v>5131264</v>
+      </c>
+      <c r="J99" s="14">
+        <f t="shared" si="1"/>
+        <v>0.26929339914019479</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>101</v>
       </c>
@@ -3953,8 +4975,18 @@
       <c r="G100" s="9" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H100" s="13">
+        <v>19054548</v>
+      </c>
+      <c r="I100" s="13">
+        <v>3533140</v>
+      </c>
+      <c r="J100" s="14">
+        <f t="shared" si="1"/>
+        <v>0.18542239889395434</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>104</v>
       </c>
@@ -3976,8 +5008,18 @@
       <c r="G101" s="9" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H101" s="13">
+        <v>5428792</v>
+      </c>
+      <c r="I101" s="13">
+        <v>728370</v>
+      </c>
+      <c r="J101" s="14">
+        <f t="shared" si="1"/>
+        <v>0.13416796959618271</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>105</v>
       </c>
@@ -3999,8 +5041,18 @@
       <c r="G102" s="9" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H102" s="13">
+        <v>5428792</v>
+      </c>
+      <c r="I102" s="13">
+        <v>1806944</v>
+      </c>
+      <c r="J102" s="14">
+        <f t="shared" si="1"/>
+        <v>0.33284458126227712</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>106</v>
       </c>
@@ -4022,8 +5074,18 @@
       <c r="G103" s="9" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H103" s="13">
+        <v>5428792</v>
+      </c>
+      <c r="I103" s="13">
+        <v>1305883</v>
+      </c>
+      <c r="J103" s="14">
+        <f t="shared" si="1"/>
+        <v>0.24054762090719262</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>107</v>
       </c>
@@ -4045,8 +5107,18 @@
       <c r="G104" s="9" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H104" s="13">
+        <v>5428792</v>
+      </c>
+      <c r="I104" s="13">
+        <v>1587595</v>
+      </c>
+      <c r="J104" s="14">
+        <f t="shared" si="1"/>
+        <v>0.29243982823434755</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>102</v>
       </c>
@@ -4068,8 +5140,18 @@
       <c r="G105" s="9" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H105" s="13">
+        <v>2116972</v>
+      </c>
+      <c r="I105" s="13">
+        <v>1107885</v>
+      </c>
+      <c r="J105" s="14">
+        <f t="shared" si="1"/>
+        <v>0.52333474415344183</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>103</v>
       </c>
@@ -4091,8 +5173,18 @@
       <c r="G106" s="9" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H106" s="13">
+        <v>2116972</v>
+      </c>
+      <c r="I106" s="13">
+        <v>1009087</v>
+      </c>
+      <c r="J106" s="14">
+        <f t="shared" si="1"/>
+        <v>0.47666525584655822</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>46</v>
       </c>
@@ -4114,8 +5206,18 @@
       <c r="G107" s="11" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H107" s="13">
+        <v>48085361</v>
+      </c>
+      <c r="I107" s="13">
+        <v>5522095</v>
+      </c>
+      <c r="J107" s="14">
+        <f t="shared" si="1"/>
+        <v>0.11483942067108532</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>47</v>
       </c>
@@ -4137,8 +5239,18 @@
       <c r="G108" s="9" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H108" s="13">
+        <v>48085361</v>
+      </c>
+      <c r="I108" s="13">
+        <v>14328064</v>
+      </c>
+      <c r="J108" s="14">
+        <f t="shared" si="1"/>
+        <v>0.29797143459108066</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>44</v>
       </c>
@@ -4160,8 +5272,18 @@
       <c r="G109" s="11" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H109" s="13">
+        <v>48085361</v>
+      </c>
+      <c r="I109" s="13">
+        <v>4552028</v>
+      </c>
+      <c r="J109" s="14">
+        <f t="shared" si="1"/>
+        <v>9.4665567759801159E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>43</v>
       </c>
@@ -4183,8 +5305,18 @@
       <c r="G110" s="11" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H110" s="13">
+        <v>48085361</v>
+      </c>
+      <c r="I110" s="13">
+        <v>4293871</v>
+      </c>
+      <c r="J110" s="14">
+        <f t="shared" si="1"/>
+        <v>8.9296844417992405E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>48</v>
       </c>
@@ -4206,8 +5338,18 @@
       <c r="G111" s="11" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H111" s="13">
+        <v>48085361</v>
+      </c>
+      <c r="I111" s="13">
+        <v>10304384</v>
+      </c>
+      <c r="J111" s="14">
+        <f t="shared" si="1"/>
+        <v>0.21429357679148961</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>45</v>
       </c>
@@ -4229,8 +5371,18 @@
       <c r="G112" s="9" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H112" s="13">
+        <v>48085361</v>
+      </c>
+      <c r="I112" s="13">
+        <v>6871903</v>
+      </c>
+      <c r="J112" s="14">
+        <f t="shared" si="1"/>
+        <v>0.14291050034957625</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>49</v>
       </c>
@@ -4252,8 +5404,18 @@
       <c r="G113" s="9" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H113" s="13">
+        <v>48085361</v>
+      </c>
+      <c r="I113" s="13">
+        <v>2213016</v>
+      </c>
+      <c r="J113" s="14">
+        <f t="shared" si="1"/>
+        <v>4.6022655418974601E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>113</v>
       </c>
@@ -4275,8 +5437,18 @@
       <c r="G114" s="9" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H114" s="13">
+        <v>10521556</v>
+      </c>
+      <c r="I114" s="13">
+        <v>4203672</v>
+      </c>
+      <c r="J114" s="14">
+        <f t="shared" si="1"/>
+        <v>0.39952949924897041</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>114</v>
       </c>
@@ -4298,8 +5470,18 @@
       <c r="G115" s="9" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H115" s="13">
+        <v>10521556</v>
+      </c>
+      <c r="I115" s="13">
+        <v>4556857</v>
+      </c>
+      <c r="J115" s="14">
+        <f t="shared" si="1"/>
+        <v>0.43309725291582346</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>115</v>
       </c>
@@ -4320,6 +5502,16 @@
       </c>
       <c r="G116" s="9" t="s">
         <v>386</v>
+      </c>
+      <c r="H116" s="13">
+        <v>10521556</v>
+      </c>
+      <c r="I116" s="13">
+        <v>1761027</v>
+      </c>
+      <c r="J116" s="14">
+        <f t="shared" si="1"/>
+        <v>0.16737324783520613</v>
       </c>
     </row>
   </sheetData>
@@ -4328,11 +5520,22 @@
       <sortCondition ref="B1:B116"/>
     </sortState>
   </autoFilter>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006BF094976B1C6245BAB5BCECAC284645" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="579d0760968303502ff8eb3a8a5e610f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="69276225-f05c-44c5-92dc-c999460a4149" xmlns:ns3="46f3a809-46a3-44ee-a0f1-42a271529c86" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6855c386bbcb23a4cad2dada315b1779" ns2:_="" ns3:_="">
     <xsd:import namespace="69276225-f05c-44c5-92dc-c999460a4149"/>
@@ -4581,7 +5784,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="46f3a809-46a3-44ee-a0f1-42a271529c86">
@@ -4592,16 +5795,15 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A3263D7-CA43-48BC-8F28-1FA6213EFCDC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61F40AB6-ADCC-4E1B-8187-C1134CB7C097}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4620,7 +5822,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51C746D7-CF54-4E7D-92A4-AB36B233844F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -4629,12 +5831,4 @@
     <ds:schemaRef ds:uri="69276225-f05c-44c5-92dc-c999460a4149"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A3263D7-CA43-48BC-8F28-1FA6213EFCDC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data-viz/inputs/region_labels.xlsx
+++ b/data-viz/inputs/region_labels.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wjproject.sharepoint.com/research/Programmatic/EU Subnational/EU-S Data/reports/eu-gpp-report/data-viz/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="302" documentId="8_{6626208B-8827-4CBE-9772-3AA277DEA2CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8D3D107F-F7D5-4918-A927-A3048FBCF183}"/>
+  <xr:revisionPtr revIDLastSave="306" documentId="8_{6626208B-8827-4CBE-9772-3AA277DEA2CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C262294-65BF-4039-9E5A-A1F1C883F755}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{DD3ABE5B-D581-4517-9DBD-9419A819EBBB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DD3ABE5B-D581-4517-9DBD-9419A819EBBB}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -1673,21 +1673,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7B15BD7-531B-4529-B0B4-38B6E533B250}">
   <dimension ref="A1:J116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B88" workbookViewId="0">
-      <selection activeCell="I107" sqref="I107"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.44140625" customWidth="1"/>
-    <col min="5" max="5" width="49.21875" customWidth="1"/>
-    <col min="6" max="6" width="38" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="27.21875" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="11.44140625" style="15"/>
+    <col min="3" max="4" width="11.42578125" customWidth="1"/>
+    <col min="5" max="5" width="48.28515625" customWidth="1"/>
+    <col min="6" max="6" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1719,7 +1719,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>85</v>
       </c>
@@ -1752,7 +1752,7 @@
         <v>0.43951896873419782</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>86</v>
       </c>
@@ -1785,7 +1785,7 @@
         <v>0.20145282056486422</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>87</v>
       </c>
@@ -1818,7 +1818,7 @@
         <v>0.35902821070093793</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1851,7 +1851,7 @@
         <v>0.10671887683308132</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -1884,7 +1884,7 @@
         <v>0.57805389789620798</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
@@ -1917,7 +1917,7 @@
         <v>0.31522722527071068</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4</v>
       </c>
@@ -1950,7 +1950,7 @@
         <v>0.485463831344772</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5</v>
       </c>
@@ -1983,7 +1983,7 @@
         <v>0.514536168655228</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>63</v>
       </c>
@@ -2016,7 +2016,7 @@
         <v>0.25944780614579366</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>64</v>
       </c>
@@ -2049,7 +2049,7 @@
         <v>0.33706121227953822</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>65</v>
       </c>
@@ -2082,7 +2082,7 @@
         <v>0.19959624959814526</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>66</v>
       </c>
@@ -2115,7 +2115,7 @@
         <v>0.20389473197652286</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>72</v>
       </c>
@@ -2148,7 +2148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>6</v>
       </c>
@@ -2181,7 +2181,7 @@
         <v>0.12535879608357547</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>7</v>
       </c>
@@ -2214,7 +2214,7 @@
         <v>0.13293808772066093</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>12</v>
       </c>
@@ -2247,7 +2247,7 @@
         <v>0.11196765208386882</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>13</v>
       </c>
@@ -2280,7 +2280,7 @@
         <v>0.10987493083601993</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>10</v>
       </c>
@@ -2313,7 +2313,7 @@
         <v>0.14160248381694476</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>9</v>
       </c>
@@ -2346,7 +2346,7 @@
         <v>0.10214075621501452</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>11</v>
       </c>
@@ -2379,7 +2379,7 @@
         <v>0.15996050437731452</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>8</v>
       </c>
@@ -2412,7 +2412,7 @@
         <v>0.11615678886660105</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>14</v>
       </c>
@@ -2445,7 +2445,7 @@
         <v>0.31889117416926727</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>15</v>
       </c>
@@ -2478,7 +2478,7 @@
         <v>0.14325072724618695</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>16</v>
       </c>
@@ -2511,7 +2511,7 @@
         <v>0.20857663366176418</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>17</v>
       </c>
@@ -2544,7 +2544,7 @@
         <v>0.22905077558880055</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>18</v>
       </c>
@@ -2577,7 +2577,7 @@
         <v>0.10023068933398105</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>35</v>
       </c>
@@ -2610,7 +2610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>108</v>
       </c>
@@ -2643,7 +2643,7 @@
         <v>0.24888002631214762</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>109</v>
       </c>
@@ -2676,7 +2676,7 @@
         <v>0.31147418120514669</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>110</v>
       </c>
@@ -2709,7 +2709,7 @@
         <v>0.20569359647877325</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>111</v>
       </c>
@@ -2742,7 +2742,7 @@
         <v>0.22849584020043243</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>112</v>
       </c>
@@ -2775,7 +2775,7 @@
         <v>5.4563558035000187E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>50</v>
       </c>
@@ -2808,7 +2808,7 @@
         <v>0.18171992107664595</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>51</v>
       </c>
@@ -2841,7 +2841,7 @@
         <v>3.7738340222402196E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>52</v>
       </c>
@@ -2874,7 +2874,7 @@
         <v>4.0983511692616853E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>53</v>
       </c>
@@ -2907,7 +2907,7 @@
         <v>4.8796094088717878E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>54</v>
       </c>
@@ -2940,7 +2940,7 @@
         <v>8.7812858751936271E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>55</v>
       </c>
@@ -2973,7 +2973,7 @@
         <v>8.1634721628776746E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>56</v>
       </c>
@@ -3006,7 +3006,7 @@
         <v>5.7238442146952159E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>57</v>
       </c>
@@ -3039,7 +3039,7 @@
         <v>5.0355744329604379E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>58</v>
       </c>
@@ -3072,7 +3072,7 @@
         <v>8.9846289094871121E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>59</v>
       </c>
@@ -3105,7 +3105,7 @@
         <v>8.9626407249312284E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>60</v>
       </c>
@@ -3138,7 +3138,7 @@
         <v>0.12021687126850863</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>61</v>
       </c>
@@ -3171,7 +3171,7 @@
         <v>7.5894470619934928E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>62</v>
       </c>
@@ -3204,7 +3204,7 @@
         <v>5.1758191519199756E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>19</v>
       </c>
@@ -3237,7 +3237,7 @@
         <v>0.13371753726595001</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>20</v>
       </c>
@@ -3270,7 +3270,7 @@
         <v>0.15848240928381607</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>21</v>
       </c>
@@ -3303,7 +3303,7 @@
         <v>4.4515201695803211E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>22</v>
       </c>
@@ -3336,7 +3336,7 @@
         <v>3.0502254979901635E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>23</v>
       </c>
@@ -3369,7 +3369,7 @@
         <v>8.1184610813483746E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>24</v>
       </c>
@@ -3402,7 +3402,7 @@
         <v>2.2429444120530575E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>25</v>
       </c>
@@ -3435,7 +3435,7 @@
         <v>7.5763958124367398E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>26</v>
       </c>
@@ -3468,7 +3468,7 @@
         <v>1.9302990694099711E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>27</v>
       </c>
@@ -3501,7 +3501,7 @@
         <v>9.6495417878231973E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>28</v>
       </c>
@@ -3534,7 +3534,7 @@
         <v>0.2150232853472567</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>29</v>
       </c>
@@ -3567,7 +3567,7 @@
         <v>4.9303069524007828E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>30</v>
       </c>
@@ -3600,7 +3600,7 @@
         <v>1.1767183393750828E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>31</v>
       </c>
@@ -3633,7 +3633,7 @@
         <v>4.8437742361218908E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>32</v>
       </c>
@@ -3666,7 +3666,7 @@
         <v>2.5920731845012816E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>33</v>
       </c>
@@ -3699,7 +3699,7 @@
         <v>3.5008421464281549E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>34</v>
       </c>
@@ -3732,7 +3732,7 @@
         <v>2.5211890940422432E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>39</v>
       </c>
@@ -3765,7 +3765,7 @@
         <v>0.36401464876739753</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>40</v>
       </c>
@@ -3798,7 +3798,7 @@
         <v>0.10998319374855843</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>41</v>
       </c>
@@ -3831,7 +3831,7 @@
         <v>0.27959554760129218</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>42</v>
       </c>
@@ -3864,7 +3864,7 @@
         <v>0.24640660988275187</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>77</v>
       </c>
@@ -3897,7 +3897,7 @@
         <v>0.31248687464999064</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>78</v>
       </c>
@@ -3930,7 +3930,7 @@
         <v>0.30219535020933891</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>79</v>
       </c>
@@ -3963,7 +3963,7 @@
         <v>0.38531777514067039</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>38</v>
       </c>
@@ -3996,7 +3996,7 @@
         <v>0.49322940132545562</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>36</v>
       </c>
@@ -4029,7 +4029,7 @@
         <v>0.17646334604027966</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>37</v>
       </c>
@@ -4062,7 +4062,7 @@
         <v>0.33030725263426475</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>71</v>
       </c>
@@ -4095,7 +4095,7 @@
         <v>0.19870810481331139</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>70</v>
       </c>
@@ -4128,7 +4128,7 @@
         <v>0.19591644695144098</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>69</v>
       </c>
@@ -4161,7 +4161,7 @@
         <v>0.10834686886247366</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>67</v>
       </c>
@@ -4194,7 +4194,7 @@
         <v>0.26880302338410939</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>68</v>
       </c>
@@ -4227,7 +4227,7 @@
         <v>0.22822555598866462</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>73</v>
       </c>
@@ -4260,7 +4260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>74</v>
       </c>
@@ -4293,7 +4293,7 @@
         <v>0.29703924607992427</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>75</v>
       </c>
@@ -4326,7 +4326,7 @@
         <v>0.70296075392007573</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>76</v>
       </c>
@@ -4359,7 +4359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>80</v>
       </c>
@@ -4392,7 +4392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>81</v>
       </c>
@@ -4425,7 +4425,7 @@
         <v>9.8683301508015339E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>82</v>
       </c>
@@ -4458,7 +4458,7 @@
         <v>0.21125599486303379</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>83</v>
       </c>
@@ -4491,7 +4491,7 @@
         <v>0.47926312584528546</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>84</v>
       </c>
@@ -4524,7 +4524,7 @@
         <v>0.21079757778366542</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>92</v>
       </c>
@@ -4557,7 +4557,7 @@
         <v>9.4578630047296414E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>93</v>
       </c>
@@ -4590,7 +4590,7 @@
         <v>0.13589328714773377</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>91</v>
       </c>
@@ -4623,7 +4623,7 @@
         <v>0.15079615307679198</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -4656,7 +4656,7 @@
         <v>0.16286970119173735</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>94</v>
       </c>
@@ -4689,7 +4689,7 @@
         <v>0.1490940403990495</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>88</v>
       </c>
@@ -4722,7 +4722,7 @@
         <v>0.20581820580090143</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>90</v>
       </c>
@@ -4755,7 +4755,7 @@
         <v>0.10094998233648955</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>95</v>
       </c>
@@ -4788,7 +4788,7 @@
         <v>0.95288203355075196</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>96</v>
       </c>
@@ -4821,7 +4821,7 @@
         <v>2.2922863306776509E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>97</v>
       </c>
@@ -4854,7 +4854,7 @@
         <v>2.4195103142471565E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>98</v>
       </c>
@@ -4887,7 +4887,7 @@
         <v>0.25257849202195715</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>99</v>
       </c>
@@ -4920,7 +4920,7 @@
         <v>0.29270570994389372</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>100</v>
       </c>
@@ -4953,7 +4953,7 @@
         <v>0.26929339914019479</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>101</v>
       </c>
@@ -4986,7 +4986,7 @@
         <v>0.18542239889395434</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>104</v>
       </c>
@@ -5019,7 +5019,7 @@
         <v>0.13416796959618271</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>105</v>
       </c>
@@ -5052,7 +5052,7 @@
         <v>0.33284458126227712</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>106</v>
       </c>
@@ -5085,7 +5085,7 @@
         <v>0.24054762090719262</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>107</v>
       </c>
@@ -5118,7 +5118,7 @@
         <v>0.29243982823434755</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>102</v>
       </c>
@@ -5151,7 +5151,7 @@
         <v>0.52333474415344183</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>103</v>
       </c>
@@ -5184,7 +5184,7 @@
         <v>0.47666525584655822</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>46</v>
       </c>
@@ -5217,7 +5217,7 @@
         <v>0.11483942067108532</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>47</v>
       </c>
@@ -5250,7 +5250,7 @@
         <v>0.29797143459108066</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>44</v>
       </c>
@@ -5283,7 +5283,7 @@
         <v>9.4665567759801159E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>43</v>
       </c>
@@ -5316,7 +5316,7 @@
         <v>8.9296844417992405E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>48</v>
       </c>
@@ -5349,7 +5349,7 @@
         <v>0.21429357679148961</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>45</v>
       </c>
@@ -5382,7 +5382,7 @@
         <v>0.14291050034957625</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>49</v>
       </c>
@@ -5415,7 +5415,7 @@
         <v>4.6022655418974601E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
@@ -5448,7 +5448,7 @@
         <v>0.39952949924897041</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
@@ -5481,7 +5481,7 @@
         <v>0.43309725291582346</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
@@ -5527,12 +5527,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="46f3a809-46a3-44ee-a0f1-42a271529c86">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="69276225-f05c-44c5-92dc-c999460a4149" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5785,20 +5787,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="46f3a809-46a3-44ee-a0f1-42a271529c86">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="69276225-f05c-44c5-92dc-c999460a4149" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A3263D7-CA43-48BC-8F28-1FA6213EFCDC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51C746D7-CF54-4E7D-92A4-AB36B233844F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="46f3a809-46a3-44ee-a0f1-42a271529c86"/>
+    <ds:schemaRef ds:uri="69276225-f05c-44c5-92dc-c999460a4149"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5823,12 +5826,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51C746D7-CF54-4E7D-92A4-AB36B233844F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A3263D7-CA43-48BC-8F28-1FA6213EFCDC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="46f3a809-46a3-44ee-a0f1-42a271529c86"/>
-    <ds:schemaRef ds:uri="69276225-f05c-44c5-92dc-c999460a4149"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>